--- a/Esercitazioni_AC/2024_01_08/Foglio_Soluzione_Es1_CEM_20240108.xlsx
+++ b/Esercitazioni_AC/2024_01_08/Foglio_Soluzione_Es1_CEM_20240108.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Soluzione Es.2" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Soluzione Es.3 " sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Soluzione Es.4,5" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Soluzione Es.2" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Soluzione Es.3 " sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Soluzione Es.4,5" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="112">
   <si>
     <t xml:space="preserve">2.      Si disegni il grafo delle dipendenze e si deduca il numero minimo di periodi di clock necessario a eseguire il codice assegnato tenendo conto solo delle dipendenze trovate (1 punto).</t>
   </si>
@@ -42,10 +42,25 @@
     <t xml:space="preserve">Nome</t>
   </si>
   <si>
+    <t xml:space="preserve">RAW F1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cognome</t>
   </si>
   <si>
+    <t xml:space="preserve">WAW F6</t>
+  </si>
+  <si>
     <t xml:space="preserve">Matricola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WAR F3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAW F6, RAW F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WAR F6, WAW F6</t>
   </si>
   <si>
     <t xml:space="preserve">Descrizione unità di esecuzione</t>
@@ -124,6 +139,35 @@
   </si>
   <si>
     <t xml:space="preserve">Tot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1,4)→(2,4)→</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1,4)→(5,4)→</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(3,2</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">)→(5,4)→</t>
+    </r>
   </si>
   <si>
     <r>
@@ -162,6 +206,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Tempo minimo di esecuzione = 12 clock</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.      Si mostri la dinamica dell’esecuzione nel caso della CPU considerata nel punto 1 con 1 CRB, uno stadio di IF e uno di ID, e 2 RS per ognuna delle tre unità funzionali </t>
   </si>
   <si>
@@ -279,25 +326,49 @@
     <t xml:space="preserve">f2</t>
   </si>
   <si>
+    <t xml:space="preserve">D0_E</t>
+  </si>
+  <si>
     <t xml:space="preserve">f6</t>
   </si>
   <si>
     <t xml:space="preserve">f5</t>
   </si>
   <si>
+    <t xml:space="preserve">D1_W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1_E</t>
+  </si>
+  <si>
     <t xml:space="preserve">fadd.s</t>
   </si>
   <si>
     <t xml:space="preserve">f3</t>
   </si>
   <si>
+    <t xml:space="preserve">A0_E</t>
+  </si>
+  <si>
     <t xml:space="preserve">f8</t>
   </si>
   <si>
+    <t xml:space="preserve">A1_R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1_E</t>
+  </si>
+  <si>
     <t xml:space="preserve">f4</t>
   </si>
   <si>
+    <t xml:space="preserve">D0_R</t>
+  </si>
+  <si>
     <t xml:space="preserve">fmul.s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M0_E</t>
   </si>
   <si>
     <t xml:space="preserve">4.      E’ possibile ridurre il numero di periodi di clock necessario ad eseguire il codice assegnato rispetto al valore risultante dalla risposta al punto 3? Si punti al numero minore possibile di periodi di clock e al numero minimo di modifiche, supponendo di poter apportare solo le seguenti modifiche all’architettura: </t>
@@ -446,6 +517,12 @@
     <t xml:space="preserve"># numero CRB complessivo.</t>
   </si>
   <si>
+    <t xml:space="preserve">X0_W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X0_E</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b val="true"/>
@@ -477,17 +554,27 @@
   <si>
     <t xml:space="preserve">Val</t>
   </si>
+  <si>
+    <t xml:space="preserve">X0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="# ?/?"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="# ?/?"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -565,6 +652,13 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -624,11 +718,23 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF4472C4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -918,7 +1024,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
@@ -926,7 +1032,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="110">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -959,7 +1065,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1023,6 +1129,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1043,11 +1153,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1055,27 +1161,31 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1207,14 +1317,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="19" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1227,7 +1341,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="3" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1235,7 +1353,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1243,7 +1361,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1251,7 +1369,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1319,19 +1437,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1427,112 +1545,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
-  <a:themeElements>
-    <a:clrScheme name="LibreOffice">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="ffffff"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="18a303"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="0369a3"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="a33e03"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8e03a3"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="c99c00"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="c9211e"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000ee"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="551a8b"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -1540,11 +1552,11 @@
   </sheetPr>
   <dimension ref="A1:AW37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6"/>
@@ -1700,11 +1712,13 @@
         <f aca="false">'Soluzione Es.3 '!C14&amp;","&amp;'Soluzione Es.3 '!D14&amp;","&amp;'Soluzione Es.3 '!E14</f>
         <v>f6,f1,f5</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -1727,11 +1741,13 @@
         <f aca="false">'Soluzione Es.3 '!C15&amp;","&amp;'Soluzione Es.3 '!D15&amp;","&amp;'Soluzione Es.3 '!E15</f>
         <v>f6,f2,f3</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
@@ -1754,7 +1770,9 @@
         <f aca="false">'Soluzione Es.3 '!C16&amp;","&amp;'Soluzione Es.3 '!D16&amp;","&amp;'Soluzione Es.3 '!E16</f>
         <v>f3,f8,f2</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
     </row>
@@ -1770,7 +1788,9 @@
         <f aca="false">'Soluzione Es.3 '!C17&amp;","&amp;'Soluzione Es.3 '!D17&amp;","&amp;'Soluzione Es.3 '!E17</f>
         <v>f4,f6,f1</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
     </row>
@@ -1786,7 +1806,9 @@
         <f aca="false">'Soluzione Es.3 '!C18&amp;","&amp;'Soluzione Es.3 '!D18&amp;","&amp;'Soluzione Es.3 '!E18</f>
         <v>f6,f10,f5</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
     </row>
@@ -1836,18 +1858,18 @@
     </row>
     <row r="10" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
@@ -1859,16 +1881,16 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C11" s="12" t="n">
         <v>2</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E11" s="13" t="n">
         <v>1</v>
@@ -1888,16 +1910,16 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C12" s="12" t="n">
         <v>3</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E12" s="13" t="n">
         <v>1</v>
@@ -1917,16 +1939,16 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C13" s="12" t="n">
         <v>4</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E13" s="13" t="n">
         <v>1</v>
@@ -1952,7 +1974,7 @@
     </row>
     <row r="15" customFormat="false" ht="127.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="17" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -1971,13 +1993,13 @@
     </row>
     <row r="16" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="18" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="19" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
@@ -2020,13 +2042,13 @@
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="20" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F17" s="20"/>
       <c r="G17" s="20" t="s">
@@ -2034,15 +2056,15 @@
       </c>
       <c r="H17" s="20"/>
       <c r="I17" s="20" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="20" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="L17" s="20"/>
       <c r="M17" s="20" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N17" s="20"/>
       <c r="O17" s="20"/>
@@ -2065,53 +2087,89 @@
       <c r="O18" s="20"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="21"/>
+      <c r="A19" s="21" t="s">
+        <v>31</v>
+      </c>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
-      <c r="E19" s="9"/>
+      <c r="E19" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="G19" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
+      <c r="I19" s="9" t="n">
+        <v>8</v>
+      </c>
       <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
+      <c r="K19" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="L19" s="9"/>
-      <c r="M19" s="22"/>
+      <c r="M19" s="22" t="n">
+        <v>12</v>
+      </c>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="9"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="G20" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
+      <c r="I20" s="9" t="n">
+        <v>8</v>
+      </c>
       <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
+      <c r="K20" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="L20" s="9"/>
-      <c r="M20" s="22"/>
+      <c r="M20" s="22" t="n">
+        <v>12</v>
+      </c>
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="21"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
-      <c r="E21" s="9"/>
+      <c r="E21" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="G21" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
+      <c r="I21" s="9" t="n">
+        <v>6</v>
+      </c>
       <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+      <c r="K21" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="L21" s="9"/>
-      <c r="M21" s="22"/>
+      <c r="M21" s="22" t="n">
+        <v>10</v>
+      </c>
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
     </row>
@@ -2128,26 +2186,26 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
-      <c r="X23" s="24"/>
-      <c r="Y23" s="24"/>
-      <c r="Z23" s="24"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -2163,342 +2221,344 @@
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
-      <c r="AA24" s="24"/>
-      <c r="AB24" s="25"/>
-      <c r="AC24" s="25"/>
-      <c r="AD24" s="25"/>
-      <c r="AE24" s="25"/>
-      <c r="AF24" s="25"/>
-      <c r="AG24" s="25"/>
-      <c r="AH24" s="25"/>
-      <c r="AI24" s="25"/>
-      <c r="AJ24" s="25"/>
-      <c r="AK24" s="25"/>
-      <c r="AL24" s="25"/>
-      <c r="AM24" s="25"/>
-      <c r="AN24" s="25"/>
-      <c r="AO24" s="25"/>
-      <c r="AP24" s="25"/>
-      <c r="AQ24" s="25"/>
-      <c r="AR24" s="25"/>
-      <c r="AS24" s="25"/>
-      <c r="AT24" s="25"/>
-      <c r="AU24" s="25"/>
-      <c r="AV24" s="25"/>
-      <c r="AW24" s="25"/>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="26"/>
+      <c r="AC24" s="26"/>
+      <c r="AD24" s="26"/>
+      <c r="AE24" s="26"/>
+      <c r="AF24" s="26"/>
+      <c r="AG24" s="26"/>
+      <c r="AH24" s="26"/>
+      <c r="AI24" s="26"/>
+      <c r="AJ24" s="26"/>
+      <c r="AK24" s="26"/>
+      <c r="AL24" s="26"/>
+      <c r="AM24" s="26"/>
+      <c r="AN24" s="26"/>
+      <c r="AO24" s="26"/>
+      <c r="AP24" s="26"/>
+      <c r="AQ24" s="26"/>
+      <c r="AR24" s="26"/>
+      <c r="AS24" s="26"/>
+      <c r="AT24" s="26"/>
+      <c r="AU24" s="26"/>
+      <c r="AV24" s="26"/>
+      <c r="AW24" s="26"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="25"/>
-      <c r="V25" s="25"/>
-      <c r="W25" s="25"/>
-      <c r="X25" s="25"/>
-      <c r="Y25" s="25"/>
-      <c r="Z25" s="24"/>
-      <c r="AA25" s="24"/>
-      <c r="AB25" s="25"/>
-      <c r="AC25" s="25"/>
-      <c r="AD25" s="25"/>
-      <c r="AE25" s="25"/>
-      <c r="AF25" s="25"/>
-      <c r="AG25" s="25"/>
-      <c r="AH25" s="25"/>
-      <c r="AI25" s="25"/>
-      <c r="AJ25" s="25"/>
-      <c r="AK25" s="25"/>
-      <c r="AL25" s="25"/>
-      <c r="AM25" s="25"/>
-      <c r="AN25" s="25"/>
-      <c r="AO25" s="25"/>
-      <c r="AP25" s="25"/>
-      <c r="AQ25" s="25"/>
-      <c r="AR25" s="25"/>
-      <c r="AS25" s="25"/>
-      <c r="AT25" s="25"/>
-      <c r="AU25" s="25"/>
-      <c r="AV25" s="25"/>
-      <c r="AW25" s="25"/>
+      <c r="A25" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="26"/>
+      <c r="AC25" s="26"/>
+      <c r="AD25" s="26"/>
+      <c r="AE25" s="26"/>
+      <c r="AF25" s="26"/>
+      <c r="AG25" s="26"/>
+      <c r="AH25" s="26"/>
+      <c r="AI25" s="26"/>
+      <c r="AJ25" s="26"/>
+      <c r="AK25" s="26"/>
+      <c r="AL25" s="26"/>
+      <c r="AM25" s="26"/>
+      <c r="AN25" s="26"/>
+      <c r="AO25" s="26"/>
+      <c r="AP25" s="26"/>
+      <c r="AQ25" s="26"/>
+      <c r="AR25" s="26"/>
+      <c r="AS25" s="26"/>
+      <c r="AT25" s="26"/>
+      <c r="AU25" s="26"/>
+      <c r="AV25" s="26"/>
+      <c r="AW25" s="26"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="25"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="24"/>
-      <c r="AA26" s="27"/>
-      <c r="AB26" s="25"/>
-      <c r="AC26" s="25"/>
-      <c r="AD26" s="25"/>
-      <c r="AE26" s="25"/>
-      <c r="AF26" s="25"/>
-      <c r="AG26" s="25"/>
-      <c r="AH26" s="25"/>
-      <c r="AI26" s="25"/>
-      <c r="AJ26" s="25"/>
-      <c r="AK26" s="25"/>
-      <c r="AL26" s="25"/>
-      <c r="AM26" s="25"/>
-      <c r="AN26" s="25"/>
-      <c r="AO26" s="25"/>
-      <c r="AP26" s="25"/>
-      <c r="AQ26" s="25"/>
-      <c r="AR26" s="25"/>
-      <c r="AS26" s="25"/>
-      <c r="AT26" s="25"/>
-      <c r="AU26" s="25"/>
-      <c r="AV26" s="25"/>
-      <c r="AW26" s="25"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="25"/>
+      <c r="AA26" s="28"/>
+      <c r="AB26" s="26"/>
+      <c r="AC26" s="26"/>
+      <c r="AD26" s="26"/>
+      <c r="AE26" s="26"/>
+      <c r="AF26" s="26"/>
+      <c r="AG26" s="26"/>
+      <c r="AH26" s="26"/>
+      <c r="AI26" s="26"/>
+      <c r="AJ26" s="26"/>
+      <c r="AK26" s="26"/>
+      <c r="AL26" s="26"/>
+      <c r="AM26" s="26"/>
+      <c r="AN26" s="26"/>
+      <c r="AO26" s="26"/>
+      <c r="AP26" s="26"/>
+      <c r="AQ26" s="26"/>
+      <c r="AR26" s="26"/>
+      <c r="AS26" s="26"/>
+      <c r="AT26" s="26"/>
+      <c r="AU26" s="26"/>
+      <c r="AV26" s="26"/>
+      <c r="AW26" s="26"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="28"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="27"/>
-      <c r="AA27" s="24"/>
-      <c r="AB27" s="25"/>
-      <c r="AC27" s="25"/>
-      <c r="AD27" s="25"/>
-      <c r="AE27" s="25"/>
-      <c r="AF27" s="25"/>
-      <c r="AG27" s="25"/>
-      <c r="AH27" s="25"/>
-      <c r="AI27" s="25"/>
-      <c r="AJ27" s="25"/>
-      <c r="AK27" s="25"/>
-      <c r="AL27" s="25"/>
-      <c r="AM27" s="25"/>
-      <c r="AN27" s="25"/>
-      <c r="AO27" s="25"/>
-      <c r="AP27" s="25"/>
-      <c r="AQ27" s="25"/>
-      <c r="AR27" s="25"/>
-      <c r="AS27" s="25"/>
-      <c r="AT27" s="25"/>
-      <c r="AU27" s="25"/>
-      <c r="AV27" s="25"/>
-      <c r="AW27" s="25"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="28"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="26"/>
+      <c r="AC27" s="26"/>
+      <c r="AD27" s="26"/>
+      <c r="AE27" s="26"/>
+      <c r="AF27" s="26"/>
+      <c r="AG27" s="26"/>
+      <c r="AH27" s="26"/>
+      <c r="AI27" s="26"/>
+      <c r="AJ27" s="26"/>
+      <c r="AK27" s="26"/>
+      <c r="AL27" s="26"/>
+      <c r="AM27" s="26"/>
+      <c r="AN27" s="26"/>
+      <c r="AO27" s="26"/>
+      <c r="AP27" s="26"/>
+      <c r="AQ27" s="26"/>
+      <c r="AR27" s="26"/>
+      <c r="AS27" s="26"/>
+      <c r="AT27" s="26"/>
+      <c r="AU27" s="26"/>
+      <c r="AV27" s="26"/>
+      <c r="AW27" s="26"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="25"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="28"/>
-      <c r="X28" s="25"/>
-      <c r="Y28" s="25"/>
-      <c r="Z28" s="24"/>
-      <c r="AA28" s="24"/>
-      <c r="AB28" s="25"/>
-      <c r="AC28" s="25"/>
-      <c r="AD28" s="25"/>
-      <c r="AE28" s="25"/>
-      <c r="AF28" s="25"/>
-      <c r="AG28" s="25"/>
-      <c r="AH28" s="25"/>
-      <c r="AI28" s="25"/>
-      <c r="AJ28" s="25"/>
-      <c r="AK28" s="25"/>
-      <c r="AL28" s="25"/>
-      <c r="AM28" s="25"/>
-      <c r="AN28" s="25"/>
-      <c r="AO28" s="25"/>
-      <c r="AP28" s="25"/>
-      <c r="AQ28" s="25"/>
-      <c r="AR28" s="25"/>
-      <c r="AS28" s="25"/>
-      <c r="AT28" s="25"/>
-      <c r="AU28" s="25"/>
-      <c r="AV28" s="25"/>
-      <c r="AW28" s="25"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="25"/>
+      <c r="AA28" s="25"/>
+      <c r="AB28" s="26"/>
+      <c r="AC28" s="26"/>
+      <c r="AD28" s="26"/>
+      <c r="AE28" s="26"/>
+      <c r="AF28" s="26"/>
+      <c r="AG28" s="26"/>
+      <c r="AH28" s="26"/>
+      <c r="AI28" s="26"/>
+      <c r="AJ28" s="26"/>
+      <c r="AK28" s="26"/>
+      <c r="AL28" s="26"/>
+      <c r="AM28" s="26"/>
+      <c r="AN28" s="26"/>
+      <c r="AO28" s="26"/>
+      <c r="AP28" s="26"/>
+      <c r="AQ28" s="26"/>
+      <c r="AR28" s="26"/>
+      <c r="AS28" s="26"/>
+      <c r="AT28" s="26"/>
+      <c r="AU28" s="26"/>
+      <c r="AV28" s="26"/>
+      <c r="AW28" s="26"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="25"/>
-      <c r="V29" s="25"/>
-      <c r="W29" s="25"/>
-      <c r="X29" s="25"/>
-      <c r="Y29" s="25"/>
-      <c r="Z29" s="24"/>
-      <c r="AA29" s="24"/>
-      <c r="AB29" s="25"/>
-      <c r="AC29" s="25"/>
-      <c r="AD29" s="25"/>
-      <c r="AE29" s="25"/>
-      <c r="AF29" s="29"/>
-      <c r="AG29" s="29"/>
-      <c r="AH29" s="25"/>
-      <c r="AI29" s="25"/>
-      <c r="AJ29" s="25"/>
-      <c r="AK29" s="25"/>
-      <c r="AL29" s="25"/>
-      <c r="AM29" s="25"/>
-      <c r="AN29" s="25"/>
-      <c r="AO29" s="25"/>
-      <c r="AP29" s="25"/>
-      <c r="AQ29" s="25"/>
-      <c r="AR29" s="25"/>
-      <c r="AS29" s="25"/>
-      <c r="AT29" s="25"/>
-      <c r="AU29" s="25"/>
-      <c r="AV29" s="25"/>
-      <c r="AW29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="26"/>
+      <c r="Y29" s="26"/>
+      <c r="Z29" s="25"/>
+      <c r="AA29" s="25"/>
+      <c r="AB29" s="26"/>
+      <c r="AC29" s="26"/>
+      <c r="AD29" s="26"/>
+      <c r="AE29" s="26"/>
+      <c r="AF29" s="30"/>
+      <c r="AG29" s="30"/>
+      <c r="AH29" s="26"/>
+      <c r="AI29" s="26"/>
+      <c r="AJ29" s="26"/>
+      <c r="AK29" s="26"/>
+      <c r="AL29" s="26"/>
+      <c r="AM29" s="26"/>
+      <c r="AN29" s="26"/>
+      <c r="AO29" s="26"/>
+      <c r="AP29" s="26"/>
+      <c r="AQ29" s="26"/>
+      <c r="AR29" s="26"/>
+      <c r="AS29" s="26"/>
+      <c r="AT29" s="26"/>
+      <c r="AU29" s="26"/>
+      <c r="AV29" s="26"/>
+      <c r="AW29" s="26"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="28"/>
-      <c r="U30" s="28"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="28"/>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="28"/>
-      <c r="Z30" s="24"/>
-      <c r="AA30" s="30"/>
-      <c r="AB30" s="25"/>
-      <c r="AC30" s="25"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="25"/>
+      <c r="AA30" s="31"/>
+      <c r="AB30" s="26"/>
+      <c r="AC30" s="26"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="25"/>
-      <c r="S31" s="25"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="31"/>
-      <c r="V31" s="31"/>
-      <c r="W31" s="31"/>
-      <c r="X31" s="31"/>
-      <c r="Y31" s="31"/>
-      <c r="Z31" s="31"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="32"/>
+      <c r="Y31" s="32"/>
+      <c r="Z31" s="32"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="177">
@@ -2701,7 +2761,7 @@
       <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6"/>
@@ -2720,123 +2780,123 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="1" width="4.83"/>
   </cols>
   <sheetData>
-    <row r="1" s="35" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN1" s="33"/>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="34"/>
+    <row r="1" s="36" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="34"/>
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="35"/>
     </row>
     <row r="2" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="37"/>
+      <c r="A2" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="38"/>
+      <c r="AP2" s="38"/>
     </row>
     <row r="3" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
+      <c r="A3" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
       <c r="Q3" s="5" t="s">
         <v>4</v>
       </c>
@@ -2850,33 +2910,33 @@
       <c r="Y3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="41" t="s">
-        <v>11</v>
+      <c r="A4" s="42" t="s">
+        <v>16</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C4" s="12" t="n">
         <v>2</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E4" s="13" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="42" t="n">
+      <c r="H4" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
       <c r="Q4" s="10" t="s">
         <v>5</v>
       </c>
@@ -2890,35 +2950,35 @@
       <c r="Y4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="41" t="s">
-        <v>14</v>
+      <c r="A5" s="42" t="s">
+        <v>19</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="12" t="n">
         <v>3</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E5" s="13" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="42" t="n">
+      <c r="H5" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
       <c r="Q5" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
@@ -2930,35 +2990,35 @@
       <c r="Y5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="44" t="n">
+      <c r="A6" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="45" t="n">
         <v>4</v>
       </c>
-      <c r="D6" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="46" t="n">
+      <c r="D6" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="47" t="n">
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
       <c r="Q6" s="10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R6" s="10"/>
       <c r="S6" s="10"/>
@@ -2970,25 +3030,25 @@
       <c r="Y6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49" t="n">
+      <c r="A7" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="50" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
@@ -3025,722 +3085,822 @@
       <c r="D8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50"/>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="50"/>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="50"/>
-      <c r="AD9" s="50"/>
-      <c r="AE9" s="50"/>
-      <c r="AF9" s="50"/>
-      <c r="AG9" s="50"/>
-      <c r="AH9" s="50"/>
-      <c r="AI9" s="50"/>
-      <c r="AJ9" s="50"/>
-      <c r="AK9" s="50"/>
-      <c r="AL9" s="50"/>
-      <c r="AM9" s="50"/>
-      <c r="AN9" s="50"/>
-      <c r="AO9" s="50"/>
-      <c r="AP9" s="50"/>
-      <c r="AQ9" s="50"/>
-      <c r="AR9" s="50"/>
-      <c r="AS9" s="50"/>
-      <c r="AT9" s="50"/>
-      <c r="AU9" s="50"/>
-      <c r="AV9" s="50"/>
-      <c r="AW9" s="50"/>
+      <c r="A9" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="51"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="51"/>
+      <c r="X9" s="51"/>
+      <c r="Y9" s="51"/>
+      <c r="Z9" s="51"/>
+      <c r="AA9" s="51"/>
+      <c r="AB9" s="51"/>
+      <c r="AC9" s="51"/>
+      <c r="AD9" s="51"/>
+      <c r="AE9" s="51"/>
+      <c r="AF9" s="51"/>
+      <c r="AG9" s="51"/>
+      <c r="AH9" s="51"/>
+      <c r="AI9" s="51"/>
+      <c r="AJ9" s="51"/>
+      <c r="AK9" s="51"/>
+      <c r="AL9" s="51"/>
+      <c r="AM9" s="51"/>
+      <c r="AN9" s="51"/>
+      <c r="AO9" s="51"/>
+      <c r="AP9" s="51"/>
+      <c r="AQ9" s="51"/>
+      <c r="AR9" s="51"/>
+      <c r="AS9" s="51"/>
+      <c r="AT9" s="51"/>
+      <c r="AU9" s="51"/>
+      <c r="AV9" s="51"/>
+      <c r="AW9" s="51"/>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="51"/>
-      <c r="V10" s="51"/>
-      <c r="W10" s="51"/>
-      <c r="X10" s="51"/>
-      <c r="Y10" s="51"/>
-      <c r="Z10" s="51"/>
-      <c r="AA10" s="51"/>
-      <c r="AB10" s="51"/>
-      <c r="AC10" s="51"/>
-      <c r="AD10" s="51"/>
-      <c r="AE10" s="51"/>
-      <c r="AF10" s="51"/>
-      <c r="AG10" s="51"/>
-      <c r="AH10" s="51"/>
-      <c r="AI10" s="51"/>
-      <c r="AJ10" s="51"/>
-      <c r="AK10" s="51"/>
-      <c r="AL10" s="51"/>
-      <c r="AM10" s="51"/>
-      <c r="AN10" s="51"/>
-      <c r="AO10" s="51"/>
-      <c r="AP10" s="51"/>
-      <c r="AQ10" s="51"/>
-      <c r="AR10" s="51"/>
-      <c r="AS10" s="51"/>
-      <c r="AT10" s="51"/>
-      <c r="AU10" s="51"/>
-      <c r="AV10" s="51"/>
-      <c r="AW10" s="51"/>
+      <c r="A10" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="52"/>
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="52"/>
+      <c r="AB10" s="52"/>
+      <c r="AC10" s="52"/>
+      <c r="AD10" s="52"/>
+      <c r="AE10" s="52"/>
+      <c r="AF10" s="52"/>
+      <c r="AG10" s="52"/>
+      <c r="AH10" s="52"/>
+      <c r="AI10" s="52"/>
+      <c r="AJ10" s="52"/>
+      <c r="AK10" s="52"/>
+      <c r="AL10" s="52"/>
+      <c r="AM10" s="52"/>
+      <c r="AN10" s="52"/>
+      <c r="AO10" s="52"/>
+      <c r="AP10" s="52"/>
+      <c r="AQ10" s="52"/>
+      <c r="AR10" s="52"/>
+      <c r="AS10" s="52"/>
+      <c r="AT10" s="52"/>
+      <c r="AU10" s="52"/>
+      <c r="AV10" s="52"/>
+      <c r="AW10" s="52"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="53" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="53"/>
-      <c r="H11" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" s="53"/>
-      <c r="L11" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="M11" s="53"/>
-      <c r="N11" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="O11" s="53"/>
-      <c r="P11" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="S11" s="53"/>
-      <c r="T11" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="U11" s="53"/>
-      <c r="V11" s="24" t="s">
+      <c r="E11" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="W11" s="53"/>
-      <c r="X11" s="54" t="s">
+      <c r="F11" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="24" t="s">
+      <c r="G11" s="54"/>
+      <c r="H11" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="AA11" s="53"/>
-      <c r="AB11" s="24" t="s">
+      <c r="I11" s="54"/>
+      <c r="J11" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="AC11" s="53"/>
-      <c r="AD11" s="24" t="s">
+      <c r="K11" s="54"/>
+      <c r="L11" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="AE11" s="53"/>
-      <c r="AF11" s="24" t="s">
+      <c r="M11" s="54"/>
+      <c r="N11" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="AG11" s="53"/>
-      <c r="AH11" s="24" t="s">
+      <c r="O11" s="54"/>
+      <c r="P11" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="AI11" s="53"/>
-      <c r="AJ11" s="24" t="s">
+      <c r="Q11" s="54"/>
+      <c r="R11" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="AK11" s="53"/>
-      <c r="AL11" s="24" t="s">
+      <c r="S11" s="54"/>
+      <c r="T11" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="AM11" s="53"/>
-      <c r="AN11" s="24" t="s">
+      <c r="U11" s="54"/>
+      <c r="V11" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="AO11" s="53"/>
-      <c r="AP11" s="24" t="s">
+      <c r="W11" s="54"/>
+      <c r="X11" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="AQ11" s="53"/>
-      <c r="AR11" s="24" t="s">
+      <c r="Y11" s="54"/>
+      <c r="Z11" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="AS11" s="53"/>
-      <c r="AT11" s="55" t="s">
+      <c r="AA11" s="54"/>
+      <c r="AB11" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="AU11" s="55"/>
-      <c r="AV11" s="55" t="s">
+      <c r="AC11" s="54"/>
+      <c r="AD11" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="AW11" s="55"/>
+      <c r="AE11" s="54"/>
+      <c r="AF11" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG11" s="54"/>
+      <c r="AH11" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI11" s="54"/>
+      <c r="AJ11" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK11" s="54"/>
+      <c r="AL11" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM11" s="54"/>
+      <c r="AN11" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO11" s="54"/>
+      <c r="AP11" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ11" s="54"/>
+      <c r="AR11" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS11" s="54"/>
+      <c r="AT11" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU11" s="56"/>
+      <c r="AV11" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW11" s="56"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="56"/>
-      <c r="B12" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="J12" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="K12" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="L12" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="M12" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="N12" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="O12" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="P12" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q12" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="R12" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="S12" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="T12" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="U12" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="V12" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="W12" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="X12" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y12" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z12" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA12" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB12" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC12" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD12" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE12" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF12" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG12" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH12" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI12" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ12" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK12" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL12" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM12" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN12" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO12" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP12" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ12" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR12" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS12" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="AT12" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU12" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="AV12" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW12" s="59" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="52" t="n">
+      <c r="A12" s="57"/>
+      <c r="B12" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="L12" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="M12" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="N12" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="O12" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q12" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="R12" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="S12" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="T12" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="U12" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="V12" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="W12" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="X12" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y12" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z12" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA12" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB12" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC12" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD12" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE12" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF12" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG12" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH12" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI12" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ12" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK12" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL12" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM12" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN12" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO12" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP12" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ12" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR12" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS12" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT12" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU12" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV12" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW12" s="60" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="53" t="n">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="63"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="64"/>
-      <c r="T13" s="62"/>
-      <c r="U13" s="62"/>
-      <c r="V13" s="62"/>
-      <c r="W13" s="62"/>
-      <c r="X13" s="62"/>
-      <c r="Y13" s="62"/>
-      <c r="Z13" s="62"/>
-      <c r="AA13" s="62"/>
-      <c r="AB13" s="62"/>
-      <c r="AC13" s="62"/>
-      <c r="AD13" s="62"/>
-      <c r="AE13" s="62"/>
-      <c r="AF13" s="62"/>
-      <c r="AG13" s="62"/>
-      <c r="AH13" s="62"/>
-      <c r="AI13" s="62"/>
-      <c r="AJ13" s="62"/>
-      <c r="AK13" s="62"/>
-      <c r="AL13" s="62"/>
-      <c r="AM13" s="62"/>
-      <c r="AN13" s="65"/>
-      <c r="AO13" s="65"/>
-      <c r="AP13" s="65"/>
-      <c r="AQ13" s="65"/>
-      <c r="AR13" s="65"/>
-      <c r="AS13" s="65"/>
-      <c r="AT13" s="65"/>
-      <c r="AU13" s="65"/>
-      <c r="AV13" s="66"/>
-      <c r="AW13" s="66"/>
+        <v>71</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="63"/>
+      <c r="J13" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="S13" s="65"/>
+      <c r="T13" s="63"/>
+      <c r="U13" s="63"/>
+      <c r="V13" s="63"/>
+      <c r="W13" s="63"/>
+      <c r="X13" s="63"/>
+      <c r="Y13" s="63"/>
+      <c r="Z13" s="63"/>
+      <c r="AA13" s="63"/>
+      <c r="AB13" s="63"/>
+      <c r="AC13" s="63"/>
+      <c r="AD13" s="63"/>
+      <c r="AE13" s="63"/>
+      <c r="AF13" s="63"/>
+      <c r="AG13" s="63"/>
+      <c r="AH13" s="63"/>
+      <c r="AI13" s="63"/>
+      <c r="AJ13" s="63"/>
+      <c r="AK13" s="63"/>
+      <c r="AL13" s="63"/>
+      <c r="AM13" s="63"/>
+      <c r="AN13" s="66"/>
+      <c r="AO13" s="66"/>
+      <c r="AP13" s="66"/>
+      <c r="AQ13" s="66"/>
+      <c r="AR13" s="66"/>
+      <c r="AS13" s="66"/>
+      <c r="AT13" s="66"/>
+      <c r="AU13" s="66"/>
+      <c r="AV13" s="67"/>
+      <c r="AW13" s="67"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="52" t="n">
+      <c r="A14" s="53" t="n">
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="70"/>
-      <c r="R14" s="70"/>
-      <c r="S14" s="70"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="70"/>
-      <c r="V14" s="70"/>
-      <c r="W14" s="70"/>
-      <c r="X14" s="70"/>
-      <c r="Y14" s="70"/>
-      <c r="Z14" s="70"/>
-      <c r="AA14" s="70"/>
-      <c r="AB14" s="71"/>
-      <c r="AC14" s="71"/>
-      <c r="AD14" s="64"/>
-      <c r="AE14" s="64"/>
-      <c r="AF14" s="64"/>
-      <c r="AG14" s="64"/>
-      <c r="AH14" s="64"/>
-      <c r="AI14" s="64"/>
-      <c r="AJ14" s="64"/>
-      <c r="AK14" s="64"/>
-      <c r="AL14" s="64"/>
-      <c r="AM14" s="64"/>
-      <c r="AN14" s="72"/>
-      <c r="AO14" s="72"/>
-      <c r="AP14" s="72"/>
-      <c r="AQ14" s="72"/>
-      <c r="AR14" s="72"/>
-      <c r="AS14" s="72"/>
-      <c r="AT14" s="72"/>
-      <c r="AU14" s="72"/>
-      <c r="AV14" s="63"/>
-      <c r="AW14" s="63"/>
+        <v>71</v>
+      </c>
+      <c r="C14" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="65"/>
+      <c r="L14" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="M14" s="71"/>
+      <c r="N14" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="O14" s="71"/>
+      <c r="P14" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="S14" s="71"/>
+      <c r="T14" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="U14" s="71"/>
+      <c r="V14" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="W14" s="72"/>
+      <c r="X14" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y14" s="72"/>
+      <c r="Z14" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA14" s="72"/>
+      <c r="AB14" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC14" s="73"/>
+      <c r="AD14" s="65"/>
+      <c r="AE14" s="65"/>
+      <c r="AF14" s="65"/>
+      <c r="AG14" s="65"/>
+      <c r="AH14" s="65"/>
+      <c r="AI14" s="65"/>
+      <c r="AJ14" s="65"/>
+      <c r="AK14" s="65"/>
+      <c r="AL14" s="65"/>
+      <c r="AM14" s="65"/>
+      <c r="AN14" s="74"/>
+      <c r="AO14" s="74"/>
+      <c r="AP14" s="74"/>
+      <c r="AQ14" s="74"/>
+      <c r="AR14" s="74"/>
+      <c r="AS14" s="74"/>
+      <c r="AT14" s="74"/>
+      <c r="AU14" s="74"/>
+      <c r="AV14" s="64"/>
+      <c r="AW14" s="64"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="52" t="n">
+      <c r="A15" s="53" t="n">
         <v>3</v>
       </c>
-      <c r="B15" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="73" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="64"/>
-      <c r="R15" s="71"/>
-      <c r="S15" s="71"/>
-      <c r="T15" s="71"/>
-      <c r="U15" s="71"/>
-      <c r="V15" s="71"/>
-      <c r="W15" s="71"/>
-      <c r="X15" s="64"/>
-      <c r="Y15" s="64"/>
-      <c r="Z15" s="64"/>
-      <c r="AA15" s="64"/>
-      <c r="AB15" s="64"/>
-      <c r="AC15" s="64"/>
-      <c r="AD15" s="64"/>
-      <c r="AE15" s="64"/>
-      <c r="AF15" s="64"/>
-      <c r="AG15" s="64"/>
-      <c r="AH15" s="64"/>
-      <c r="AI15" s="64"/>
-      <c r="AJ15" s="64"/>
-      <c r="AK15" s="64"/>
-      <c r="AL15" s="64"/>
-      <c r="AM15" s="64"/>
-      <c r="AN15" s="72"/>
-      <c r="AO15" s="72"/>
-      <c r="AP15" s="72"/>
-      <c r="AQ15" s="72"/>
-      <c r="AR15" s="72"/>
-      <c r="AS15" s="72"/>
-      <c r="AT15" s="72"/>
-      <c r="AU15" s="72"/>
-      <c r="AV15" s="63"/>
-      <c r="AW15" s="63"/>
+      <c r="B15" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="O15" s="65"/>
+      <c r="P15" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="S15" s="73"/>
+      <c r="T15" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="U15" s="73"/>
+      <c r="V15" s="73"/>
+      <c r="W15" s="73"/>
+      <c r="X15" s="65"/>
+      <c r="Y15" s="65"/>
+      <c r="Z15" s="65"/>
+      <c r="AA15" s="65"/>
+      <c r="AB15" s="65"/>
+      <c r="AC15" s="65"/>
+      <c r="AD15" s="65"/>
+      <c r="AE15" s="65"/>
+      <c r="AF15" s="65"/>
+      <c r="AG15" s="65"/>
+      <c r="AH15" s="65"/>
+      <c r="AI15" s="65"/>
+      <c r="AJ15" s="65"/>
+      <c r="AK15" s="65"/>
+      <c r="AL15" s="65"/>
+      <c r="AM15" s="65"/>
+      <c r="AN15" s="74"/>
+      <c r="AO15" s="74"/>
+      <c r="AP15" s="74"/>
+      <c r="AQ15" s="74"/>
+      <c r="AR15" s="74"/>
+      <c r="AS15" s="74"/>
+      <c r="AT15" s="74"/>
+      <c r="AU15" s="74"/>
+      <c r="AV15" s="64"/>
+      <c r="AW15" s="64"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="52" t="n">
+      <c r="A16" s="53" t="n">
         <v>4</v>
       </c>
-      <c r="B16" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="64"/>
-      <c r="S16" s="64"/>
-      <c r="T16" s="64"/>
-      <c r="U16" s="64"/>
-      <c r="V16" s="71"/>
-      <c r="W16" s="71"/>
-      <c r="X16" s="64"/>
-      <c r="Y16" s="64"/>
-      <c r="Z16" s="64"/>
-      <c r="AA16" s="64"/>
-      <c r="AB16" s="64"/>
-      <c r="AC16" s="64"/>
-      <c r="AD16" s="71"/>
-      <c r="AE16" s="71"/>
-      <c r="AF16" s="64"/>
-      <c r="AG16" s="64"/>
-      <c r="AH16" s="64"/>
-      <c r="AI16" s="64"/>
-      <c r="AJ16" s="64"/>
-      <c r="AK16" s="64"/>
-      <c r="AL16" s="64"/>
-      <c r="AM16" s="64"/>
-      <c r="AN16" s="72"/>
-      <c r="AO16" s="72"/>
-      <c r="AP16" s="72"/>
-      <c r="AQ16" s="72"/>
-      <c r="AR16" s="72"/>
-      <c r="AS16" s="72"/>
-      <c r="AT16" s="72"/>
-      <c r="AU16" s="72"/>
-      <c r="AV16" s="63"/>
-      <c r="AW16" s="63"/>
+      <c r="B16" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="O16" s="65"/>
+      <c r="P16" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="S16" s="71"/>
+      <c r="T16" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="U16" s="72"/>
+      <c r="V16" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="W16" s="73"/>
+      <c r="X16" s="65"/>
+      <c r="Y16" s="65"/>
+      <c r="Z16" s="65"/>
+      <c r="AA16" s="65"/>
+      <c r="AB16" s="65"/>
+      <c r="AC16" s="65"/>
+      <c r="AD16" s="73"/>
+      <c r="AE16" s="73"/>
+      <c r="AF16" s="65"/>
+      <c r="AG16" s="65"/>
+      <c r="AH16" s="65"/>
+      <c r="AI16" s="65"/>
+      <c r="AJ16" s="65"/>
+      <c r="AK16" s="65"/>
+      <c r="AL16" s="65"/>
+      <c r="AM16" s="65"/>
+      <c r="AN16" s="74"/>
+      <c r="AO16" s="74"/>
+      <c r="AP16" s="74"/>
+      <c r="AQ16" s="74"/>
+      <c r="AR16" s="74"/>
+      <c r="AS16" s="74"/>
+      <c r="AT16" s="74"/>
+      <c r="AU16" s="74"/>
+      <c r="AV16" s="64"/>
+      <c r="AW16" s="64"/>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="52" t="n">
+      <c r="A17" s="53" t="n">
         <v>5</v>
       </c>
-      <c r="B17" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="67" t="s">
+      <c r="B17" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="64"/>
-      <c r="P17" s="64"/>
-      <c r="Q17" s="64"/>
-      <c r="R17" s="63"/>
-      <c r="S17" s="63"/>
-      <c r="T17" s="63"/>
-      <c r="U17" s="63"/>
-      <c r="V17" s="63"/>
-      <c r="W17" s="63"/>
-      <c r="X17" s="63"/>
-      <c r="Y17" s="63"/>
-      <c r="Z17" s="64"/>
+      <c r="C17" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="O17" s="65"/>
+      <c r="P17" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="65"/>
+      <c r="R17" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="S17" s="64"/>
+      <c r="T17" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="U17" s="64"/>
+      <c r="V17" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="W17" s="64"/>
+      <c r="X17" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y17" s="64"/>
+      <c r="Z17" s="64" t="s">
+        <v>87</v>
+      </c>
       <c r="AA17" s="64"/>
-      <c r="AB17" s="64"/>
-      <c r="AC17" s="64"/>
-      <c r="AD17" s="64"/>
-      <c r="AE17" s="64"/>
-      <c r="AF17" s="64"/>
-      <c r="AG17" s="64"/>
-      <c r="AH17" s="75"/>
-      <c r="AI17" s="75"/>
-      <c r="AJ17" s="71"/>
-      <c r="AK17" s="71"/>
-      <c r="AL17" s="71"/>
-      <c r="AM17" s="71"/>
-      <c r="AN17" s="72"/>
-      <c r="AO17" s="72"/>
-      <c r="AP17" s="72"/>
-      <c r="AQ17" s="72"/>
-      <c r="AR17" s="72"/>
-      <c r="AS17" s="72"/>
-      <c r="AT17" s="72"/>
-      <c r="AU17" s="72"/>
-      <c r="AV17" s="63"/>
-      <c r="AW17" s="63"/>
+      <c r="AB17" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC17" s="77"/>
+      <c r="AD17" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE17" s="77"/>
+      <c r="AF17" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG17" s="77"/>
+      <c r="AH17" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI17" s="78"/>
+      <c r="AJ17" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK17" s="73"/>
+      <c r="AL17" s="73"/>
+      <c r="AM17" s="73"/>
+      <c r="AN17" s="74"/>
+      <c r="AO17" s="74"/>
+      <c r="AP17" s="74"/>
+      <c r="AQ17" s="74"/>
+      <c r="AR17" s="74"/>
+      <c r="AS17" s="74"/>
+      <c r="AT17" s="74"/>
+      <c r="AU17" s="74"/>
+      <c r="AV17" s="64"/>
+      <c r="AW17" s="64"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="52" t="n">
+      <c r="A18" s="53" t="n">
         <v>6</v>
       </c>
-      <c r="B18" s="67" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="76"/>
-      <c r="N18" s="76"/>
-      <c r="O18" s="76"/>
-      <c r="P18" s="64"/>
-      <c r="Q18" s="64"/>
-      <c r="R18" s="77"/>
-      <c r="S18" s="77"/>
-      <c r="T18" s="77"/>
-      <c r="U18" s="77"/>
-      <c r="V18" s="64"/>
-      <c r="W18" s="64"/>
-      <c r="X18" s="63"/>
-      <c r="Y18" s="63"/>
-      <c r="Z18" s="63"/>
-      <c r="AA18" s="63"/>
-      <c r="AB18" s="63"/>
-      <c r="AC18" s="63"/>
-      <c r="AD18" s="71"/>
-      <c r="AE18" s="71"/>
-      <c r="AF18" s="64"/>
-      <c r="AG18" s="64"/>
-      <c r="AH18" s="64"/>
-      <c r="AI18" s="64"/>
-      <c r="AJ18" s="64"/>
-      <c r="AK18" s="64"/>
-      <c r="AL18" s="64"/>
-      <c r="AM18" s="64"/>
-      <c r="AN18" s="72"/>
-      <c r="AO18" s="72"/>
-      <c r="AP18" s="72"/>
-      <c r="AQ18" s="72"/>
-      <c r="AR18" s="72"/>
-      <c r="AS18" s="72"/>
-      <c r="AT18" s="72"/>
-      <c r="AU18" s="72"/>
-      <c r="AV18" s="63"/>
-      <c r="AW18" s="63"/>
+      <c r="B18" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="S18" s="80"/>
+      <c r="T18" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="U18" s="80"/>
+      <c r="V18" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="W18" s="65"/>
+      <c r="X18" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y18" s="65"/>
+      <c r="Z18" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA18" s="77"/>
+      <c r="AB18" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC18" s="77"/>
+      <c r="AD18" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE18" s="64"/>
+      <c r="AF18" s="73"/>
+      <c r="AG18" s="73"/>
+      <c r="AH18" s="65"/>
+      <c r="AI18" s="65"/>
+      <c r="AJ18" s="65"/>
+      <c r="AK18" s="65"/>
+      <c r="AL18" s="65"/>
+      <c r="AM18" s="65"/>
+      <c r="AN18" s="74"/>
+      <c r="AO18" s="74"/>
+      <c r="AP18" s="74"/>
+      <c r="AQ18" s="74"/>
+      <c r="AR18" s="74"/>
+      <c r="AS18" s="74"/>
+      <c r="AT18" s="74"/>
+      <c r="AU18" s="74"/>
+      <c r="AV18" s="64"/>
+      <c r="AW18" s="64"/>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -3921,11 +4081,11 @@
   </sheetPr>
   <dimension ref="A1:AW33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AY28" activeCellId="0" sqref="AY28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6"/>
@@ -3945,325 +4105,325 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="78" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="78"/>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="78"/>
-      <c r="AJ1" s="78"/>
-      <c r="AK1" s="78"/>
-      <c r="AL1" s="78"/>
-      <c r="AM1" s="78"/>
-      <c r="AN1" s="78"/>
-      <c r="AO1" s="78"/>
-      <c r="AP1" s="78"/>
-      <c r="AQ1" s="78"/>
-      <c r="AR1" s="78"/>
-      <c r="AS1" s="78"/>
-      <c r="AT1" s="78"/>
+      <c r="A1" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="81"/>
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="81"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="81"/>
+      <c r="AO1" s="81"/>
+      <c r="AP1" s="81"/>
+      <c r="AQ1" s="81"/>
+      <c r="AR1" s="81"/>
+      <c r="AS1" s="81"/>
+      <c r="AT1" s="81"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="79" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="79"/>
-      <c r="Z2" s="79"/>
-      <c r="AA2" s="79"/>
-      <c r="AB2" s="79"/>
-      <c r="AC2" s="79"/>
-      <c r="AD2" s="79"/>
-      <c r="AE2" s="79"/>
-      <c r="AF2" s="79"/>
-      <c r="AG2" s="79"/>
-      <c r="AH2" s="79"/>
-      <c r="AI2" s="79"/>
-      <c r="AJ2" s="79"/>
-      <c r="AK2" s="79"/>
-      <c r="AL2" s="79"/>
-      <c r="AM2" s="79"/>
-      <c r="AN2" s="79"/>
-      <c r="AO2" s="79"/>
-      <c r="AP2" s="79"/>
-      <c r="AQ2" s="79"/>
-      <c r="AR2" s="79"/>
-      <c r="AS2" s="79"/>
-      <c r="AT2" s="79"/>
+      <c r="A2" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="82"/>
+      <c r="AD2" s="82"/>
+      <c r="AE2" s="82"/>
+      <c r="AF2" s="82"/>
+      <c r="AG2" s="82"/>
+      <c r="AH2" s="82"/>
+      <c r="AI2" s="82"/>
+      <c r="AJ2" s="82"/>
+      <c r="AK2" s="82"/>
+      <c r="AL2" s="82"/>
+      <c r="AM2" s="82"/>
+      <c r="AN2" s="82"/>
+      <c r="AO2" s="82"/>
+      <c r="AP2" s="82"/>
+      <c r="AQ2" s="82"/>
+      <c r="AR2" s="82"/>
+      <c r="AS2" s="82"/>
+      <c r="AT2" s="82"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="79" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
-      <c r="W3" s="79"/>
-      <c r="X3" s="79"/>
-      <c r="Y3" s="79"/>
-      <c r="Z3" s="79"/>
-      <c r="AA3" s="79"/>
-      <c r="AB3" s="79"/>
-      <c r="AC3" s="79"/>
-      <c r="AD3" s="79"/>
-      <c r="AE3" s="79"/>
-      <c r="AF3" s="79"/>
-      <c r="AG3" s="79"/>
-      <c r="AH3" s="79"/>
-      <c r="AI3" s="79"/>
-      <c r="AJ3" s="79"/>
-      <c r="AK3" s="79"/>
-      <c r="AL3" s="79"/>
-      <c r="AM3" s="79"/>
-      <c r="AN3" s="79"/>
-      <c r="AO3" s="79"/>
-      <c r="AP3" s="79"/>
-      <c r="AQ3" s="79"/>
-      <c r="AR3" s="79"/>
-      <c r="AS3" s="79"/>
-      <c r="AT3" s="79"/>
+      <c r="A3" s="82" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="82"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
+      <c r="V3" s="82"/>
+      <c r="W3" s="82"/>
+      <c r="X3" s="82"/>
+      <c r="Y3" s="82"/>
+      <c r="Z3" s="82"/>
+      <c r="AA3" s="82"/>
+      <c r="AB3" s="82"/>
+      <c r="AC3" s="82"/>
+      <c r="AD3" s="82"/>
+      <c r="AE3" s="82"/>
+      <c r="AF3" s="82"/>
+      <c r="AG3" s="82"/>
+      <c r="AH3" s="82"/>
+      <c r="AI3" s="82"/>
+      <c r="AJ3" s="82"/>
+      <c r="AK3" s="82"/>
+      <c r="AL3" s="82"/>
+      <c r="AM3" s="82"/>
+      <c r="AN3" s="82"/>
+      <c r="AO3" s="82"/>
+      <c r="AP3" s="82"/>
+      <c r="AQ3" s="82"/>
+      <c r="AR3" s="82"/>
+      <c r="AS3" s="82"/>
+      <c r="AT3" s="82"/>
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="79" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="79"/>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="79"/>
-      <c r="U4" s="79"/>
-      <c r="V4" s="79"/>
-      <c r="W4" s="79"/>
-      <c r="X4" s="79"/>
-      <c r="Y4" s="79"/>
-      <c r="Z4" s="79"/>
-      <c r="AA4" s="79"/>
-      <c r="AB4" s="79"/>
-      <c r="AC4" s="79"/>
-      <c r="AD4" s="79"/>
-      <c r="AE4" s="79"/>
-      <c r="AF4" s="79"/>
-      <c r="AG4" s="79"/>
-      <c r="AH4" s="79"/>
-      <c r="AI4" s="79"/>
-      <c r="AJ4" s="79"/>
-      <c r="AK4" s="79"/>
-      <c r="AL4" s="79"/>
-      <c r="AM4" s="79"/>
-      <c r="AN4" s="79"/>
-      <c r="AO4" s="79"/>
-      <c r="AP4" s="79"/>
-      <c r="AQ4" s="79"/>
-      <c r="AR4" s="79"/>
-      <c r="AS4" s="79"/>
-      <c r="AT4" s="79"/>
+      <c r="A4" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="82"/>
+      <c r="T4" s="82"/>
+      <c r="U4" s="82"/>
+      <c r="V4" s="82"/>
+      <c r="W4" s="82"/>
+      <c r="X4" s="82"/>
+      <c r="Y4" s="82"/>
+      <c r="Z4" s="82"/>
+      <c r="AA4" s="82"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="82"/>
+      <c r="AD4" s="82"/>
+      <c r="AE4" s="82"/>
+      <c r="AF4" s="82"/>
+      <c r="AG4" s="82"/>
+      <c r="AH4" s="82"/>
+      <c r="AI4" s="82"/>
+      <c r="AJ4" s="82"/>
+      <c r="AK4" s="82"/>
+      <c r="AL4" s="82"/>
+      <c r="AM4" s="82"/>
+      <c r="AN4" s="82"/>
+      <c r="AO4" s="82"/>
+      <c r="AP4" s="82"/>
+      <c r="AQ4" s="82"/>
+      <c r="AR4" s="82"/>
+      <c r="AS4" s="82"/>
+      <c r="AT4" s="82"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="80" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="80"/>
-      <c r="T5" s="80"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
-      <c r="W5" s="80"/>
-      <c r="X5" s="80"/>
-      <c r="Y5" s="80"/>
-      <c r="Z5" s="80"/>
-      <c r="AA5" s="80"/>
-      <c r="AB5" s="80"/>
-      <c r="AC5" s="80"/>
-      <c r="AD5" s="80"/>
-      <c r="AE5" s="80"/>
-      <c r="AF5" s="80"/>
-      <c r="AG5" s="80"/>
-      <c r="AH5" s="80"/>
-      <c r="AI5" s="80"/>
-      <c r="AJ5" s="80"/>
-      <c r="AK5" s="80"/>
-      <c r="AL5" s="80"/>
-      <c r="AM5" s="80"/>
-      <c r="AN5" s="80"/>
-      <c r="AO5" s="80"/>
-      <c r="AP5" s="80"/>
-      <c r="AQ5" s="80"/>
-      <c r="AR5" s="80"/>
-      <c r="AS5" s="80"/>
-      <c r="AT5" s="80"/>
+      <c r="A5" s="83" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="83"/>
+      <c r="T5" s="83"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
+      <c r="W5" s="83"/>
+      <c r="X5" s="83"/>
+      <c r="Y5" s="83"/>
+      <c r="Z5" s="83"/>
+      <c r="AA5" s="83"/>
+      <c r="AB5" s="83"/>
+      <c r="AC5" s="83"/>
+      <c r="AD5" s="83"/>
+      <c r="AE5" s="83"/>
+      <c r="AF5" s="83"/>
+      <c r="AG5" s="83"/>
+      <c r="AH5" s="83"/>
+      <c r="AI5" s="83"/>
+      <c r="AJ5" s="83"/>
+      <c r="AK5" s="83"/>
+      <c r="AL5" s="83"/>
+      <c r="AM5" s="83"/>
+      <c r="AN5" s="83"/>
+      <c r="AO5" s="83"/>
+      <c r="AP5" s="83"/>
+      <c r="AQ5" s="83"/>
+      <c r="AR5" s="83"/>
+      <c r="AS5" s="83"/>
+      <c r="AT5" s="83"/>
     </row>
     <row r="6" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="81"/>
-      <c r="R6" s="81"/>
-      <c r="S6" s="81"/>
-      <c r="T6" s="81"/>
-      <c r="U6" s="81"/>
-      <c r="V6" s="81"/>
-      <c r="W6" s="81"/>
-      <c r="X6" s="81"/>
-      <c r="Y6" s="81"/>
-      <c r="Z6" s="81"/>
-      <c r="AA6" s="81"/>
-      <c r="AB6" s="81"/>
-      <c r="AC6" s="81"/>
-      <c r="AD6" s="81"/>
-      <c r="AE6" s="81"/>
-      <c r="AF6" s="81"/>
-      <c r="AG6" s="81"/>
-      <c r="AH6" s="81"/>
-      <c r="AI6" s="81"/>
-      <c r="AJ6" s="81"/>
-      <c r="AK6" s="81"/>
-      <c r="AL6" s="81"/>
-      <c r="AM6" s="81"/>
-      <c r="AN6" s="81"/>
-      <c r="AO6" s="81"/>
-      <c r="AP6" s="81"/>
-      <c r="AQ6" s="81"/>
-      <c r="AR6" s="81"/>
-      <c r="AS6" s="81"/>
-      <c r="AT6" s="81"/>
+      <c r="A6" s="84" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
+      <c r="S6" s="84"/>
+      <c r="T6" s="84"/>
+      <c r="U6" s="84"/>
+      <c r="V6" s="84"/>
+      <c r="W6" s="84"/>
+      <c r="X6" s="84"/>
+      <c r="Y6" s="84"/>
+      <c r="Z6" s="84"/>
+      <c r="AA6" s="84"/>
+      <c r="AB6" s="84"/>
+      <c r="AC6" s="84"/>
+      <c r="AD6" s="84"/>
+      <c r="AE6" s="84"/>
+      <c r="AF6" s="84"/>
+      <c r="AG6" s="84"/>
+      <c r="AH6" s="84"/>
+      <c r="AI6" s="84"/>
+      <c r="AJ6" s="84"/>
+      <c r="AK6" s="84"/>
+      <c r="AL6" s="84"/>
+      <c r="AM6" s="84"/>
+      <c r="AN6" s="84"/>
+      <c r="AO6" s="84"/>
+      <c r="AP6" s="84"/>
+      <c r="AQ6" s="84"/>
+      <c r="AR6" s="84"/>
+      <c r="AS6" s="84"/>
+      <c r="AT6" s="84"/>
     </row>
     <row r="7" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
+      <c r="A7" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
       <c r="Q7" s="5" t="s">
         <v>4</v>
       </c>
@@ -4277,65 +4437,65 @@
       <c r="Y7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="Q8" s="82"/>
-      <c r="R8" s="83"/>
-      <c r="S8" s="83"/>
-      <c r="T8" s="83"/>
-      <c r="U8" s="83"/>
-      <c r="V8" s="83"/>
-      <c r="W8" s="83"/>
-      <c r="X8" s="83"/>
-      <c r="Y8" s="83"/>
+      <c r="A8" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="Q8" s="85"/>
+      <c r="R8" s="86"/>
+      <c r="S8" s="86"/>
+      <c r="T8" s="86"/>
+      <c r="U8" s="86"/>
+      <c r="V8" s="86"/>
+      <c r="W8" s="86"/>
+      <c r="X8" s="86"/>
+      <c r="Y8" s="86"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="41" t="s">
-        <v>11</v>
+      <c r="A9" s="42" t="s">
+        <v>16</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C9" s="12" t="n">
         <v>2</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E9" s="13" t="n">
         <v>1</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
-      <c r="H9" s="84" t="n">
+      <c r="H9" s="87" t="n">
         <v>2</v>
       </c>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="84"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="87"/>
+      <c r="O9" s="87"/>
       <c r="Q9" s="10" t="s">
         <v>5</v>
       </c>
@@ -4349,35 +4509,35 @@
       <c r="Y9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="41" t="s">
-        <v>14</v>
+      <c r="A10" s="42" t="s">
+        <v>19</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C10" s="12" t="n">
         <v>3</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E10" s="13" t="n">
         <v>1</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="84" t="n">
+      <c r="H10" s="87" t="n">
         <v>2</v>
       </c>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="84"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
       <c r="Q10" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
@@ -4389,35 +4549,35 @@
       <c r="Y10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="44" t="n">
+      <c r="A11" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="45" t="n">
         <v>4</v>
       </c>
-      <c r="D11" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="46" t="n">
+      <c r="D11" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="85" t="n">
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="88" t="n">
         <v>2</v>
       </c>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="85"/>
-      <c r="O11" s="85"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="88"/>
       <c r="Q11" s="10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
@@ -4429,138 +4589,148 @@
       <c r="Y11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="86" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="87"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="91" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q12" s="91"/>
-      <c r="R12" s="91"/>
-      <c r="S12" s="91"/>
-      <c r="T12" s="91"/>
-      <c r="U12" s="91"/>
-      <c r="V12" s="91"/>
-      <c r="W12" s="91"/>
-      <c r="X12" s="91"/>
-      <c r="Y12" s="91"/>
-      <c r="Z12" s="91"/>
+      <c r="A12" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="90" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="92" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="93" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="94"/>
+      <c r="T12" s="94"/>
+      <c r="U12" s="94"/>
+      <c r="V12" s="94"/>
+      <c r="W12" s="94"/>
+      <c r="X12" s="94"/>
+      <c r="Y12" s="94"/>
+      <c r="Z12" s="94"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="86" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="91" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q13" s="91"/>
-      <c r="R13" s="91"/>
-      <c r="S13" s="91"/>
-      <c r="T13" s="91"/>
-      <c r="U13" s="91"/>
-      <c r="V13" s="91"/>
-      <c r="W13" s="91"/>
-      <c r="X13" s="91"/>
-      <c r="Y13" s="91"/>
-      <c r="Z13" s="91"/>
+      <c r="A13" s="89" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="94"/>
+      <c r="T13" s="94"/>
+      <c r="U13" s="94"/>
+      <c r="V13" s="94"/>
+      <c r="W13" s="94"/>
+      <c r="X13" s="94"/>
+      <c r="Y13" s="94"/>
+      <c r="Z13" s="94"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="92" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="94" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="96"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="96"/>
-      <c r="O14" s="96"/>
-      <c r="P14" s="91" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="91"/>
-      <c r="S14" s="91"/>
-      <c r="T14" s="91"/>
-      <c r="U14" s="91"/>
-      <c r="V14" s="91"/>
-      <c r="W14" s="91"/>
-      <c r="X14" s="91"/>
-      <c r="Y14" s="91"/>
-      <c r="Z14" s="91"/>
+      <c r="A14" s="95" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="97" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="94"/>
+      <c r="S14" s="94"/>
+      <c r="T14" s="94"/>
+      <c r="U14" s="94"/>
+      <c r="V14" s="94"/>
+      <c r="W14" s="94"/>
+      <c r="X14" s="94"/>
+      <c r="Y14" s="94"/>
+      <c r="Z14" s="94"/>
     </row>
     <row r="15" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="97"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="97"/>
-      <c r="L15" s="97"/>
-      <c r="M15" s="97"/>
-      <c r="N15" s="97"/>
-      <c r="O15" s="97"/>
-      <c r="P15" s="91" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q15" s="91"/>
-      <c r="R15" s="91"/>
-      <c r="S15" s="91"/>
-      <c r="T15" s="91"/>
-      <c r="U15" s="91"/>
-      <c r="V15" s="91"/>
-      <c r="W15" s="91"/>
-      <c r="X15" s="91"/>
-      <c r="Y15" s="91"/>
-      <c r="Z15" s="91"/>
+      <c r="A15" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="100" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="100"/>
+      <c r="M15" s="100"/>
+      <c r="N15" s="100"/>
+      <c r="O15" s="100"/>
+      <c r="P15" s="94" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="94"/>
+      <c r="S15" s="94"/>
+      <c r="T15" s="94"/>
+      <c r="U15" s="94"/>
+      <c r="V15" s="94"/>
+      <c r="W15" s="94"/>
+      <c r="X15" s="94"/>
+      <c r="Y15" s="94"/>
+      <c r="Z15" s="94"/>
       <c r="AA15" s="6"/>
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
@@ -4586,993 +4756,1127 @@
       <c r="D16" s="16"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="50"/>
-      <c r="U17" s="50"/>
-      <c r="V17" s="50"/>
-      <c r="W17" s="50"/>
-      <c r="X17" s="50"/>
-      <c r="Y17" s="50"/>
-      <c r="Z17" s="50"/>
-      <c r="AA17" s="50"/>
-      <c r="AB17" s="50"/>
-      <c r="AC17" s="50"/>
-      <c r="AD17" s="50"/>
-      <c r="AE17" s="50"/>
-      <c r="AF17" s="50"/>
-      <c r="AG17" s="50"/>
-      <c r="AH17" s="50"/>
-      <c r="AI17" s="50"/>
-      <c r="AJ17" s="50"/>
-      <c r="AK17" s="50"/>
-      <c r="AL17" s="50"/>
-      <c r="AM17" s="50"/>
-      <c r="AN17" s="50"/>
-      <c r="AO17" s="50"/>
-      <c r="AP17" s="50"/>
-      <c r="AQ17" s="50"/>
-      <c r="AR17" s="50"/>
-      <c r="AS17" s="50"/>
-      <c r="AT17" s="50"/>
-      <c r="AU17" s="50"/>
-      <c r="AV17" s="50"/>
-      <c r="AW17" s="50"/>
+      <c r="A17" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="51"/>
+      <c r="U17" s="51"/>
+      <c r="V17" s="51"/>
+      <c r="W17" s="51"/>
+      <c r="X17" s="51"/>
+      <c r="Y17" s="51"/>
+      <c r="Z17" s="51"/>
+      <c r="AA17" s="51"/>
+      <c r="AB17" s="51"/>
+      <c r="AC17" s="51"/>
+      <c r="AD17" s="51"/>
+      <c r="AE17" s="51"/>
+      <c r="AF17" s="51"/>
+      <c r="AG17" s="51"/>
+      <c r="AH17" s="51"/>
+      <c r="AI17" s="51"/>
+      <c r="AJ17" s="51"/>
+      <c r="AK17" s="51"/>
+      <c r="AL17" s="51"/>
+      <c r="AM17" s="51"/>
+      <c r="AN17" s="51"/>
+      <c r="AO17" s="51"/>
+      <c r="AP17" s="51"/>
+      <c r="AQ17" s="51"/>
+      <c r="AR17" s="51"/>
+      <c r="AS17" s="51"/>
+      <c r="AT17" s="51"/>
+      <c r="AU17" s="51"/>
+      <c r="AV17" s="51"/>
+      <c r="AW17" s="51"/>
     </row>
     <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="51"/>
-      <c r="V18" s="51"/>
-      <c r="W18" s="51"/>
-      <c r="X18" s="51"/>
-      <c r="Y18" s="51"/>
-      <c r="Z18" s="51"/>
-      <c r="AA18" s="51"/>
-      <c r="AB18" s="51"/>
-      <c r="AC18" s="51"/>
-      <c r="AD18" s="51"/>
-      <c r="AE18" s="51"/>
-      <c r="AF18" s="51"/>
-      <c r="AG18" s="51"/>
-      <c r="AH18" s="51"/>
-      <c r="AI18" s="51"/>
-      <c r="AJ18" s="51"/>
-      <c r="AK18" s="51"/>
-      <c r="AL18" s="51"/>
-      <c r="AM18" s="51"/>
-      <c r="AN18" s="51"/>
-      <c r="AO18" s="51"/>
-      <c r="AP18" s="51"/>
-      <c r="AQ18" s="51"/>
-      <c r="AR18" s="51"/>
-      <c r="AS18" s="51"/>
-      <c r="AT18" s="51"/>
-      <c r="AU18" s="51"/>
-      <c r="AV18" s="51"/>
-      <c r="AW18" s="51"/>
+      <c r="A18" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="52"/>
+      <c r="X18" s="52"/>
+      <c r="Y18" s="52"/>
+      <c r="Z18" s="52"/>
+      <c r="AA18" s="52"/>
+      <c r="AB18" s="52"/>
+      <c r="AC18" s="52"/>
+      <c r="AD18" s="52"/>
+      <c r="AE18" s="52"/>
+      <c r="AF18" s="52"/>
+      <c r="AG18" s="52"/>
+      <c r="AH18" s="52"/>
+      <c r="AI18" s="52"/>
+      <c r="AJ18" s="52"/>
+      <c r="AK18" s="52"/>
+      <c r="AL18" s="52"/>
+      <c r="AM18" s="52"/>
+      <c r="AN18" s="52"/>
+      <c r="AO18" s="52"/>
+      <c r="AP18" s="52"/>
+      <c r="AQ18" s="52"/>
+      <c r="AR18" s="52"/>
+      <c r="AS18" s="52"/>
+      <c r="AT18" s="52"/>
+      <c r="AU18" s="52"/>
+      <c r="AV18" s="52"/>
+      <c r="AW18" s="52"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="53" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="53"/>
-      <c r="H19" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="53"/>
-      <c r="J19" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" s="53"/>
-      <c r="L19" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="M19" s="53"/>
-      <c r="N19" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="O19" s="53"/>
-      <c r="P19" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="S19" s="53"/>
-      <c r="T19" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="U19" s="53"/>
-      <c r="V19" s="24" t="s">
+      <c r="E19" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="W19" s="53"/>
-      <c r="X19" s="54" t="s">
+      <c r="F19" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="Y19" s="53"/>
-      <c r="Z19" s="24" t="s">
+      <c r="G19" s="54"/>
+      <c r="H19" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="AA19" s="53"/>
-      <c r="AB19" s="24" t="s">
+      <c r="I19" s="54"/>
+      <c r="J19" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="AC19" s="53"/>
-      <c r="AD19" s="24" t="s">
+      <c r="K19" s="54"/>
+      <c r="L19" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="AE19" s="53"/>
-      <c r="AF19" s="24" t="s">
+      <c r="M19" s="54"/>
+      <c r="N19" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="AG19" s="53"/>
-      <c r="AH19" s="24" t="s">
+      <c r="O19" s="54"/>
+      <c r="P19" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="AI19" s="53"/>
-      <c r="AJ19" s="24" t="s">
+      <c r="Q19" s="54"/>
+      <c r="R19" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="AK19" s="53"/>
-      <c r="AL19" s="24" t="s">
+      <c r="S19" s="54"/>
+      <c r="T19" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="AM19" s="53"/>
-      <c r="AN19" s="24" t="s">
+      <c r="U19" s="54"/>
+      <c r="V19" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="AO19" s="53"/>
-      <c r="AP19" s="24" t="s">
+      <c r="W19" s="54"/>
+      <c r="X19" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="AQ19" s="53"/>
-      <c r="AR19" s="24" t="s">
+      <c r="Y19" s="54"/>
+      <c r="Z19" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="AS19" s="53"/>
-      <c r="AT19" s="55" t="s">
+      <c r="AA19" s="54"/>
+      <c r="AB19" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="AU19" s="55"/>
-      <c r="AV19" s="55" t="s">
+      <c r="AC19" s="54"/>
+      <c r="AD19" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="AW19" s="55"/>
+      <c r="AE19" s="54"/>
+      <c r="AF19" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG19" s="54"/>
+      <c r="AH19" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI19" s="54"/>
+      <c r="AJ19" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK19" s="54"/>
+      <c r="AL19" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM19" s="54"/>
+      <c r="AN19" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO19" s="54"/>
+      <c r="AP19" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ19" s="54"/>
+      <c r="AR19" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS19" s="54"/>
+      <c r="AT19" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU19" s="56"/>
+      <c r="AV19" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW19" s="56"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="56"/>
-      <c r="B20" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="H20" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="I20" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="J20" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="K20" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="L20" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="M20" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="N20" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="O20" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="P20" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q20" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="R20" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="S20" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="T20" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="U20" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="V20" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="W20" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="X20" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y20" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z20" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA20" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB20" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC20" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD20" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE20" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF20" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG20" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH20" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI20" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ20" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK20" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL20" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM20" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN20" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO20" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP20" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ20" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR20" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS20" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="AT20" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU20" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="AV20" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW20" s="59" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="52" t="n">
+      <c r="A20" s="57"/>
+      <c r="B20" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="J20" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="K20" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="L20" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="M20" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="N20" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="O20" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="P20" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q20" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="R20" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="S20" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="T20" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="U20" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="V20" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="W20" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="X20" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y20" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z20" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA20" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB20" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC20" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD20" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE20" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF20" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG20" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH20" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI20" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ20" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK20" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL20" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM20" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN20" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO20" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP20" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ20" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR20" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS20" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT20" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU20" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV20" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW20" s="60" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="53" t="n">
         <v>1</v>
       </c>
       <c r="B21" s="1" t="str">
         <f aca="false">'Soluzione Es.3 '!B13</f>
         <v>fdiv.s</v>
       </c>
-      <c r="C21" s="98" t="str">
+      <c r="C21" s="101" t="str">
         <f aca="false">'Soluzione Es.3 '!C13</f>
         <v>f1</v>
       </c>
-      <c r="D21" s="98" t="str">
+      <c r="D21" s="101" t="str">
         <f aca="false">'Soluzione Es.3 '!D13</f>
         <v>f10</v>
       </c>
-      <c r="E21" s="99" t="str">
+      <c r="E21" s="102" t="str">
         <f aca="false">'Soluzione Es.3 '!E13</f>
         <v>f2</v>
       </c>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="63"/>
-      <c r="R21" s="64"/>
-      <c r="S21" s="64"/>
-      <c r="T21" s="62"/>
-      <c r="U21" s="62"/>
-      <c r="V21" s="62"/>
-      <c r="W21" s="62"/>
-      <c r="X21" s="62"/>
-      <c r="Y21" s="62"/>
-      <c r="Z21" s="62"/>
-      <c r="AA21" s="62"/>
-      <c r="AB21" s="62"/>
-      <c r="AC21" s="62"/>
-      <c r="AD21" s="62"/>
-      <c r="AE21" s="62"/>
-      <c r="AF21" s="62"/>
-      <c r="AG21" s="62"/>
-      <c r="AH21" s="62"/>
-      <c r="AI21" s="62"/>
-      <c r="AJ21" s="62"/>
-      <c r="AK21" s="62"/>
-      <c r="AL21" s="62"/>
-      <c r="AM21" s="62"/>
-      <c r="AN21" s="65"/>
-      <c r="AO21" s="65"/>
-      <c r="AP21" s="65"/>
-      <c r="AQ21" s="65"/>
-      <c r="AR21" s="65"/>
-      <c r="AS21" s="65"/>
-      <c r="AT21" s="65"/>
-      <c r="AU21" s="65"/>
-      <c r="AV21" s="66"/>
-      <c r="AW21" s="66"/>
+      <c r="F21" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="63"/>
+      <c r="J21" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="O21" s="64"/>
+      <c r="P21" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="S21" s="65"/>
+      <c r="T21" s="63"/>
+      <c r="U21" s="63"/>
+      <c r="V21" s="63"/>
+      <c r="W21" s="63"/>
+      <c r="X21" s="63"/>
+      <c r="Y21" s="63"/>
+      <c r="Z21" s="63"/>
+      <c r="AA21" s="63"/>
+      <c r="AB21" s="63"/>
+      <c r="AC21" s="63"/>
+      <c r="AD21" s="63"/>
+      <c r="AE21" s="63"/>
+      <c r="AF21" s="63"/>
+      <c r="AG21" s="63"/>
+      <c r="AH21" s="63"/>
+      <c r="AI21" s="63"/>
+      <c r="AJ21" s="63"/>
+      <c r="AK21" s="63"/>
+      <c r="AL21" s="63"/>
+      <c r="AM21" s="63"/>
+      <c r="AN21" s="66"/>
+      <c r="AO21" s="66"/>
+      <c r="AP21" s="66"/>
+      <c r="AQ21" s="66"/>
+      <c r="AR21" s="66"/>
+      <c r="AS21" s="66"/>
+      <c r="AT21" s="66"/>
+      <c r="AU21" s="66"/>
+      <c r="AV21" s="67"/>
+      <c r="AW21" s="67"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="52" t="n">
+      <c r="A22" s="53" t="n">
         <v>2</v>
       </c>
       <c r="B22" s="1" t="str">
         <f aca="false">'Soluzione Es.3 '!B14</f>
         <v>fdiv.s</v>
       </c>
-      <c r="C22" s="67" t="str">
+      <c r="C22" s="68" t="str">
         <f aca="false">'Soluzione Es.3 '!C14</f>
         <v>f6</v>
       </c>
-      <c r="D22" s="100" t="str">
+      <c r="D22" s="103" t="str">
         <f aca="false">'Soluzione Es.3 '!D14</f>
         <v>f1</v>
       </c>
-      <c r="E22" s="101" t="str">
+      <c r="E22" s="104" t="str">
         <f aca="false">'Soluzione Es.3 '!E14</f>
         <v>f5</v>
       </c>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="70"/>
-      <c r="R22" s="70"/>
-      <c r="S22" s="70"/>
-      <c r="T22" s="70"/>
-      <c r="U22" s="70"/>
-      <c r="V22" s="70"/>
-      <c r="W22" s="70"/>
-      <c r="X22" s="70"/>
-      <c r="Y22" s="70"/>
-      <c r="Z22" s="70"/>
-      <c r="AA22" s="70"/>
-      <c r="AB22" s="64"/>
-      <c r="AC22" s="64"/>
-      <c r="AD22" s="64"/>
-      <c r="AE22" s="64"/>
-      <c r="AF22" s="64"/>
-      <c r="AG22" s="64"/>
-      <c r="AH22" s="64"/>
-      <c r="AI22" s="64"/>
-      <c r="AJ22" s="64"/>
-      <c r="AK22" s="64"/>
-      <c r="AL22" s="64"/>
-      <c r="AM22" s="64"/>
-      <c r="AN22" s="72"/>
-      <c r="AO22" s="72"/>
-      <c r="AP22" s="72"/>
-      <c r="AQ22" s="72"/>
-      <c r="AR22" s="72"/>
-      <c r="AS22" s="72"/>
-      <c r="AT22" s="72"/>
-      <c r="AU22" s="72"/>
-      <c r="AV22" s="63"/>
-      <c r="AW22" s="63"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" s="65"/>
+      <c r="L22" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="M22" s="72"/>
+      <c r="N22" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="O22" s="72"/>
+      <c r="P22" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q22" s="72"/>
+      <c r="R22" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="S22" s="72"/>
+      <c r="T22" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="U22" s="71"/>
+      <c r="V22" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="W22" s="72"/>
+      <c r="X22" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y22" s="72"/>
+      <c r="Z22" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA22" s="72"/>
+      <c r="AB22" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC22" s="73"/>
+      <c r="AD22" s="65"/>
+      <c r="AE22" s="65"/>
+      <c r="AF22" s="65"/>
+      <c r="AG22" s="65"/>
+      <c r="AH22" s="65"/>
+      <c r="AI22" s="65"/>
+      <c r="AJ22" s="65"/>
+      <c r="AK22" s="65"/>
+      <c r="AL22" s="65"/>
+      <c r="AM22" s="65"/>
+      <c r="AN22" s="74"/>
+      <c r="AO22" s="74"/>
+      <c r="AP22" s="74"/>
+      <c r="AQ22" s="74"/>
+      <c r="AR22" s="74"/>
+      <c r="AS22" s="74"/>
+      <c r="AT22" s="74"/>
+      <c r="AU22" s="74"/>
+      <c r="AV22" s="64"/>
+      <c r="AW22" s="64"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="52" t="n">
+      <c r="A23" s="53" t="n">
         <v>3</v>
       </c>
       <c r="B23" s="1" t="str">
         <f aca="false">'Soluzione Es.3 '!B15</f>
         <v>fadd.s</v>
       </c>
-      <c r="C23" s="67" t="str">
+      <c r="C23" s="68" t="str">
         <f aca="false">'Soluzione Es.3 '!C15</f>
         <v>f6</v>
       </c>
-      <c r="D23" s="100" t="str">
+      <c r="D23" s="103" t="str">
         <f aca="false">'Soluzione Es.3 '!D15</f>
         <v>f2</v>
       </c>
-      <c r="E23" s="101" t="str">
+      <c r="E23" s="104" t="str">
         <f aca="false">'Soluzione Es.3 '!E15</f>
         <v>f3</v>
       </c>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="64"/>
-      <c r="R23" s="71"/>
-      <c r="S23" s="71"/>
-      <c r="T23" s="71"/>
-      <c r="U23" s="71"/>
-      <c r="V23" s="71"/>
-      <c r="W23" s="71"/>
-      <c r="X23" s="64"/>
-      <c r="Y23" s="64"/>
-      <c r="Z23" s="64"/>
-      <c r="AA23" s="64"/>
-      <c r="AB23" s="64"/>
-      <c r="AC23" s="64"/>
-      <c r="AD23" s="64"/>
-      <c r="AE23" s="64"/>
-      <c r="AF23" s="64"/>
-      <c r="AG23" s="64"/>
-      <c r="AH23" s="64"/>
-      <c r="AI23" s="64"/>
-      <c r="AJ23" s="64"/>
-      <c r="AK23" s="64"/>
-      <c r="AL23" s="64"/>
-      <c r="AM23" s="64"/>
-      <c r="AN23" s="72"/>
-      <c r="AO23" s="72"/>
-      <c r="AP23" s="72"/>
-      <c r="AQ23" s="72"/>
-      <c r="AR23" s="72"/>
-      <c r="AS23" s="72"/>
-      <c r="AT23" s="72"/>
-      <c r="AU23" s="72"/>
-      <c r="AV23" s="63"/>
-      <c r="AW23" s="63"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="O23" s="65"/>
+      <c r="P23" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q23" s="65"/>
+      <c r="R23" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="S23" s="73"/>
+      <c r="T23" s="73"/>
+      <c r="U23" s="73"/>
+      <c r="V23" s="73"/>
+      <c r="W23" s="73"/>
+      <c r="X23" s="65"/>
+      <c r="Y23" s="65"/>
+      <c r="Z23" s="65"/>
+      <c r="AA23" s="65"/>
+      <c r="AB23" s="65"/>
+      <c r="AC23" s="65"/>
+      <c r="AD23" s="65"/>
+      <c r="AE23" s="65"/>
+      <c r="AF23" s="65"/>
+      <c r="AG23" s="65"/>
+      <c r="AH23" s="65"/>
+      <c r="AI23" s="65"/>
+      <c r="AJ23" s="65"/>
+      <c r="AK23" s="65"/>
+      <c r="AL23" s="65"/>
+      <c r="AM23" s="65"/>
+      <c r="AN23" s="74"/>
+      <c r="AO23" s="74"/>
+      <c r="AP23" s="74"/>
+      <c r="AQ23" s="74"/>
+      <c r="AR23" s="74"/>
+      <c r="AS23" s="74"/>
+      <c r="AT23" s="74"/>
+      <c r="AU23" s="74"/>
+      <c r="AV23" s="64"/>
+      <c r="AW23" s="64"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="52" t="n">
+      <c r="A24" s="53" t="n">
         <v>4</v>
       </c>
       <c r="B24" s="1" t="str">
         <f aca="false">'Soluzione Es.3 '!B16</f>
         <v>fadd.s</v>
       </c>
-      <c r="C24" s="67" t="str">
+      <c r="C24" s="68" t="str">
         <f aca="false">'Soluzione Es.3 '!C16</f>
         <v>f3</v>
       </c>
-      <c r="D24" s="100" t="str">
+      <c r="D24" s="103" t="str">
         <f aca="false">'Soluzione Es.3 '!D16</f>
         <v>f8</v>
       </c>
-      <c r="E24" s="101" t="str">
+      <c r="E24" s="104" t="str">
         <f aca="false">'Soluzione Es.3 '!E16</f>
         <v>f2</v>
       </c>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="64"/>
-      <c r="P24" s="70"/>
-      <c r="Q24" s="70"/>
-      <c r="R24" s="64"/>
-      <c r="S24" s="64"/>
-      <c r="T24" s="64"/>
-      <c r="U24" s="64"/>
-      <c r="V24" s="64"/>
-      <c r="W24" s="64"/>
-      <c r="X24" s="71"/>
-      <c r="Y24" s="71"/>
-      <c r="Z24" s="71"/>
-      <c r="AA24" s="71"/>
-      <c r="AB24" s="64"/>
-      <c r="AC24" s="64"/>
-      <c r="AD24" s="71"/>
-      <c r="AE24" s="71"/>
-      <c r="AF24" s="64"/>
-      <c r="AG24" s="64"/>
-      <c r="AH24" s="64"/>
-      <c r="AI24" s="64"/>
-      <c r="AJ24" s="64"/>
-      <c r="AK24" s="64"/>
-      <c r="AL24" s="64"/>
-      <c r="AM24" s="64"/>
-      <c r="AN24" s="72"/>
-      <c r="AO24" s="72"/>
-      <c r="AP24" s="72"/>
-      <c r="AQ24" s="72"/>
-      <c r="AR24" s="72"/>
-      <c r="AS24" s="72"/>
-      <c r="AT24" s="72"/>
-      <c r="AU24" s="72"/>
-      <c r="AV24" s="63"/>
-      <c r="AW24" s="63"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="O24" s="65"/>
+      <c r="P24" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="S24" s="71"/>
+      <c r="T24" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="U24" s="72"/>
+      <c r="V24" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="W24" s="73"/>
+      <c r="X24" s="65"/>
+      <c r="Y24" s="65"/>
+      <c r="Z24" s="65"/>
+      <c r="AA24" s="65"/>
+      <c r="AB24" s="65"/>
+      <c r="AC24" s="65"/>
+      <c r="AD24" s="73"/>
+      <c r="AE24" s="73"/>
+      <c r="AF24" s="65"/>
+      <c r="AG24" s="65"/>
+      <c r="AH24" s="65"/>
+      <c r="AI24" s="65"/>
+      <c r="AJ24" s="65"/>
+      <c r="AK24" s="65"/>
+      <c r="AL24" s="65"/>
+      <c r="AM24" s="65"/>
+      <c r="AN24" s="74"/>
+      <c r="AO24" s="74"/>
+      <c r="AP24" s="74"/>
+      <c r="AQ24" s="74"/>
+      <c r="AR24" s="74"/>
+      <c r="AS24" s="74"/>
+      <c r="AT24" s="74"/>
+      <c r="AU24" s="74"/>
+      <c r="AV24" s="64"/>
+      <c r="AW24" s="64"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="52" t="n">
+      <c r="A25" s="53" t="n">
         <v>5</v>
       </c>
       <c r="B25" s="1" t="str">
         <f aca="false">'Soluzione Es.3 '!B17</f>
         <v>fdiv.s</v>
       </c>
-      <c r="C25" s="67" t="str">
+      <c r="C25" s="68" t="str">
         <f aca="false">'Soluzione Es.3 '!C17</f>
         <v>f4</v>
       </c>
-      <c r="D25" s="100" t="str">
+      <c r="D25" s="103" t="str">
         <f aca="false">'Soluzione Es.3 '!D17</f>
         <v>f6</v>
       </c>
-      <c r="E25" s="101" t="str">
+      <c r="E25" s="104" t="str">
         <f aca="false">'Soluzione Es.3 '!E17</f>
         <v>f1</v>
       </c>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="64"/>
-      <c r="N25" s="64"/>
-      <c r="O25" s="64"/>
-      <c r="P25" s="64"/>
-      <c r="Q25" s="64"/>
-      <c r="R25" s="63"/>
-      <c r="S25" s="63"/>
-      <c r="T25" s="63"/>
-      <c r="U25" s="63"/>
-      <c r="V25" s="63"/>
-      <c r="W25" s="63"/>
-      <c r="X25" s="63"/>
-      <c r="Y25" s="63"/>
-      <c r="Z25" s="63"/>
-      <c r="AA25" s="63"/>
-      <c r="AB25" s="63"/>
-      <c r="AC25" s="63"/>
-      <c r="AD25" s="71"/>
-      <c r="AE25" s="71"/>
-      <c r="AF25" s="71"/>
-      <c r="AG25" s="71"/>
-      <c r="AH25" s="64"/>
-      <c r="AI25" s="64"/>
-      <c r="AJ25" s="64"/>
-      <c r="AK25" s="64"/>
-      <c r="AL25" s="64"/>
-      <c r="AM25" s="64"/>
-      <c r="AN25" s="72"/>
-      <c r="AO25" s="72"/>
-      <c r="AP25" s="72"/>
-      <c r="AQ25" s="72"/>
-      <c r="AR25" s="72"/>
-      <c r="AS25" s="72"/>
-      <c r="AT25" s="72"/>
-      <c r="AU25" s="72"/>
-      <c r="AV25" s="63"/>
-      <c r="AW25" s="63"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="65"/>
+      <c r="N25" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="O25" s="65"/>
+      <c r="P25" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="65"/>
+      <c r="R25" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="S25" s="64"/>
+      <c r="T25" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="U25" s="77"/>
+      <c r="V25" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="W25" s="77"/>
+      <c r="X25" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y25" s="77"/>
+      <c r="Z25" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA25" s="78"/>
+      <c r="AB25" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC25" s="73"/>
+      <c r="AD25" s="77"/>
+      <c r="AE25" s="77"/>
+      <c r="AF25" s="77"/>
+      <c r="AG25" s="77"/>
+      <c r="AH25" s="78"/>
+      <c r="AI25" s="78"/>
+      <c r="AJ25" s="73"/>
+      <c r="AK25" s="73"/>
+      <c r="AL25" s="65"/>
+      <c r="AM25" s="65"/>
+      <c r="AN25" s="74"/>
+      <c r="AO25" s="74"/>
+      <c r="AP25" s="74"/>
+      <c r="AQ25" s="74"/>
+      <c r="AR25" s="74"/>
+      <c r="AS25" s="74"/>
+      <c r="AT25" s="74"/>
+      <c r="AU25" s="74"/>
+      <c r="AV25" s="64"/>
+      <c r="AW25" s="64"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="52" t="n">
+      <c r="A26" s="53" t="n">
         <v>6</v>
       </c>
       <c r="B26" s="1" t="str">
         <f aca="false">'Soluzione Es.3 '!B18</f>
         <v>fmul.s</v>
       </c>
-      <c r="C26" s="67" t="str">
+      <c r="C26" s="68" t="str">
         <f aca="false">'Soluzione Es.3 '!C18</f>
         <v>f6</v>
       </c>
-      <c r="D26" s="100" t="str">
+      <c r="D26" s="103" t="str">
         <f aca="false">'Soluzione Es.3 '!D18</f>
         <v>f10</v>
       </c>
-      <c r="E26" s="101" t="str">
+      <c r="E26" s="104" t="str">
         <f aca="false">'Soluzione Es.3 '!E18</f>
         <v>f5</v>
       </c>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="76"/>
-      <c r="P26" s="64"/>
-      <c r="Q26" s="64"/>
-      <c r="R26" s="77"/>
-      <c r="S26" s="77"/>
-      <c r="T26" s="77"/>
-      <c r="U26" s="77"/>
-      <c r="V26" s="77"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="79"/>
+      <c r="P26" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q26" s="65"/>
+      <c r="R26" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="S26" s="65"/>
+      <c r="T26" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="U26" s="65"/>
+      <c r="V26" s="77" t="s">
+        <v>89</v>
+      </c>
       <c r="W26" s="77"/>
-      <c r="X26" s="77"/>
+      <c r="X26" s="77" t="s">
+        <v>89</v>
+      </c>
       <c r="Y26" s="77"/>
-      <c r="Z26" s="64"/>
+      <c r="Z26" s="64" t="s">
+        <v>29</v>
+      </c>
       <c r="AA26" s="64"/>
-      <c r="AB26" s="63"/>
-      <c r="AC26" s="63"/>
-      <c r="AD26" s="63"/>
-      <c r="AE26" s="63"/>
-      <c r="AF26" s="71"/>
-      <c r="AG26" s="71"/>
-      <c r="AH26" s="64"/>
-      <c r="AI26" s="64"/>
-      <c r="AJ26" s="64"/>
-      <c r="AK26" s="64"/>
-      <c r="AL26" s="64"/>
-      <c r="AM26" s="64"/>
-      <c r="AN26" s="72"/>
-      <c r="AO26" s="72"/>
-      <c r="AP26" s="72"/>
-      <c r="AQ26" s="72"/>
-      <c r="AR26" s="72"/>
-      <c r="AS26" s="72"/>
-      <c r="AT26" s="72"/>
-      <c r="AU26" s="72"/>
-      <c r="AV26" s="63"/>
-      <c r="AW26" s="63"/>
+      <c r="AB26" s="77"/>
+      <c r="AC26" s="77"/>
+      <c r="AD26" s="64"/>
+      <c r="AE26" s="64"/>
+      <c r="AF26" s="73"/>
+      <c r="AG26" s="73"/>
+      <c r="AH26" s="65"/>
+      <c r="AI26" s="65"/>
+      <c r="AJ26" s="65"/>
+      <c r="AK26" s="65"/>
+      <c r="AL26" s="65"/>
+      <c r="AM26" s="65"/>
+      <c r="AN26" s="74"/>
+      <c r="AO26" s="74"/>
+      <c r="AP26" s="74"/>
+      <c r="AQ26" s="74"/>
+      <c r="AR26" s="74"/>
+      <c r="AS26" s="74"/>
+      <c r="AT26" s="74"/>
+      <c r="AU26" s="74"/>
+      <c r="AV26" s="64"/>
+      <c r="AW26" s="64"/>
     </row>
     <row r="27" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="102" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" s="102"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="102"/>
-      <c r="E27" s="102"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="102"/>
-      <c r="I27" s="102"/>
-      <c r="J27" s="102"/>
-      <c r="K27" s="102"/>
-      <c r="L27" s="102"/>
-      <c r="M27" s="102"/>
-      <c r="N27" s="102"/>
-      <c r="O27" s="102"/>
-      <c r="P27" s="102"/>
-      <c r="Q27" s="102"/>
-      <c r="R27" s="102"/>
-      <c r="S27" s="102"/>
-      <c r="T27" s="102"/>
-      <c r="U27" s="102"/>
-      <c r="V27" s="102"/>
-      <c r="W27" s="102"/>
-      <c r="X27" s="102"/>
-      <c r="Y27" s="102"/>
-      <c r="Z27" s="102"/>
-      <c r="AA27" s="102"/>
-      <c r="AB27" s="102"/>
-      <c r="AC27" s="102"/>
-      <c r="AD27" s="102"/>
-      <c r="AE27" s="102"/>
-      <c r="AF27" s="102"/>
-      <c r="AG27" s="102"/>
-      <c r="AH27" s="102"/>
-      <c r="AI27" s="102"/>
-      <c r="AJ27" s="102"/>
-      <c r="AK27" s="102"/>
-      <c r="AL27" s="102"/>
-      <c r="AM27" s="102"/>
-      <c r="AN27" s="102"/>
-      <c r="AO27" s="102"/>
-      <c r="AP27" s="102"/>
-      <c r="AQ27" s="102"/>
-      <c r="AR27" s="102"/>
-      <c r="AS27" s="102"/>
-      <c r="AT27" s="102"/>
-      <c r="AU27" s="102"/>
-      <c r="AV27" s="102"/>
-      <c r="AW27" s="102"/>
+      <c r="A27" s="105" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="105"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="105"/>
+      <c r="K27" s="105"/>
+      <c r="L27" s="105"/>
+      <c r="M27" s="105"/>
+      <c r="N27" s="105"/>
+      <c r="O27" s="105"/>
+      <c r="P27" s="105"/>
+      <c r="Q27" s="105"/>
+      <c r="R27" s="105"/>
+      <c r="S27" s="105"/>
+      <c r="T27" s="105"/>
+      <c r="U27" s="105"/>
+      <c r="V27" s="105"/>
+      <c r="W27" s="105"/>
+      <c r="X27" s="105"/>
+      <c r="Y27" s="105"/>
+      <c r="Z27" s="105"/>
+      <c r="AA27" s="105"/>
+      <c r="AB27" s="105"/>
+      <c r="AC27" s="105"/>
+      <c r="AD27" s="105"/>
+      <c r="AE27" s="105"/>
+      <c r="AF27" s="105"/>
+      <c r="AG27" s="105"/>
+      <c r="AH27" s="105"/>
+      <c r="AI27" s="105"/>
+      <c r="AJ27" s="105"/>
+      <c r="AK27" s="105"/>
+      <c r="AL27" s="105"/>
+      <c r="AM27" s="105"/>
+      <c r="AN27" s="105"/>
+      <c r="AO27" s="105"/>
+      <c r="AP27" s="105"/>
+      <c r="AQ27" s="105"/>
+      <c r="AR27" s="105"/>
+      <c r="AS27" s="105"/>
+      <c r="AT27" s="105"/>
+      <c r="AU27" s="105"/>
+      <c r="AV27" s="105"/>
+      <c r="AW27" s="105"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="52"/>
-      <c r="B28" s="103" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="103"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="104" t="s">
-        <v>88</v>
-      </c>
-      <c r="G28" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="H28" s="104" t="s">
-        <v>88</v>
-      </c>
-      <c r="I28" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="J28" s="104" t="s">
-        <v>88</v>
-      </c>
-      <c r="K28" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="L28" s="104" t="s">
-        <v>88</v>
-      </c>
-      <c r="M28" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="N28" s="104" t="s">
-        <v>88</v>
-      </c>
-      <c r="O28" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="P28" s="104" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q28" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="R28" s="104" t="s">
-        <v>88</v>
-      </c>
-      <c r="S28" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="T28" s="104" t="s">
-        <v>88</v>
-      </c>
-      <c r="U28" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="V28" s="104" t="s">
-        <v>88</v>
-      </c>
-      <c r="W28" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="X28" s="104" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y28" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z28" s="104" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA28" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB28" s="104" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC28" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD28" s="104" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE28" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF28" s="104" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG28" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH28" s="104" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI28" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ28" s="104" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK28" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="AL28" s="104" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM28" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="AN28" s="104" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO28" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="AP28" s="104" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ28" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="AR28" s="104" t="s">
-        <v>88</v>
-      </c>
-      <c r="AS28" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="AT28" s="104" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU28" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="AV28" s="104" t="s">
-        <v>88</v>
-      </c>
-      <c r="AW28" s="59" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="52"/>
-      <c r="B29" s="103" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="103"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="105"/>
-      <c r="I29" s="106"/>
-      <c r="J29" s="105"/>
-      <c r="K29" s="106"/>
-      <c r="L29" s="105"/>
-      <c r="M29" s="106"/>
-      <c r="N29" s="105"/>
-      <c r="O29" s="106"/>
-      <c r="P29" s="105"/>
-      <c r="Q29" s="106"/>
-      <c r="R29" s="105"/>
-      <c r="S29" s="106"/>
-      <c r="T29" s="105"/>
-      <c r="U29" s="106"/>
-      <c r="V29" s="105"/>
-      <c r="W29" s="106"/>
-      <c r="X29" s="105"/>
-      <c r="Y29" s="106"/>
-      <c r="Z29" s="105"/>
-      <c r="AA29" s="106"/>
-      <c r="AB29" s="105"/>
-      <c r="AC29" s="106"/>
-      <c r="AD29" s="105"/>
-      <c r="AE29" s="106"/>
-      <c r="AF29" s="105"/>
-      <c r="AG29" s="106"/>
-      <c r="AH29" s="105"/>
-      <c r="AI29" s="106"/>
-      <c r="AJ29" s="105"/>
-      <c r="AK29" s="106"/>
-      <c r="AL29" s="105"/>
-      <c r="AM29" s="106"/>
-      <c r="AN29" s="105"/>
-      <c r="AO29" s="106"/>
-      <c r="AP29" s="105"/>
-      <c r="AQ29" s="106"/>
-      <c r="AR29" s="105"/>
-      <c r="AS29" s="106"/>
-      <c r="AT29" s="105"/>
-      <c r="AU29" s="106"/>
-      <c r="AV29" s="105"/>
-      <c r="AW29" s="106"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="106" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="106"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="107" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28" s="107" t="s">
+        <v>107</v>
+      </c>
+      <c r="I28" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="J28" s="107" t="s">
+        <v>107</v>
+      </c>
+      <c r="K28" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="L28" s="107" t="s">
+        <v>107</v>
+      </c>
+      <c r="M28" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="N28" s="107" t="s">
+        <v>107</v>
+      </c>
+      <c r="O28" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="P28" s="107" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q28" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="R28" s="107" t="s">
+        <v>107</v>
+      </c>
+      <c r="S28" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="T28" s="107" t="s">
+        <v>107</v>
+      </c>
+      <c r="U28" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="V28" s="107" t="s">
+        <v>107</v>
+      </c>
+      <c r="W28" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="X28" s="107" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y28" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z28" s="107" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA28" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB28" s="107" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC28" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD28" s="107" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE28" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF28" s="107" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG28" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH28" s="107" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI28" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ28" s="107" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK28" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL28" s="107" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM28" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN28" s="107" t="s">
+        <v>107</v>
+      </c>
+      <c r="AO28" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP28" s="107" t="s">
+        <v>107</v>
+      </c>
+      <c r="AQ28" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="AR28" s="107" t="s">
+        <v>107</v>
+      </c>
+      <c r="AS28" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT28" s="107" t="s">
+        <v>107</v>
+      </c>
+      <c r="AU28" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="AV28" s="107" t="s">
+        <v>107</v>
+      </c>
+      <c r="AW28" s="60" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="53"/>
+      <c r="B29" s="106" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="106"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="109" t="n">
+        <v>6</v>
+      </c>
+      <c r="H29" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="109" t="n">
+        <v>6</v>
+      </c>
+      <c r="J29" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="109" t="n">
+        <v>6</v>
+      </c>
+      <c r="L29" s="108" t="s">
+        <v>109</v>
+      </c>
+      <c r="M29" s="109" t="n">
+        <v>6</v>
+      </c>
+      <c r="N29" s="108" t="s">
+        <v>110</v>
+      </c>
+      <c r="O29" s="109" t="n">
+        <v>6</v>
+      </c>
+      <c r="P29" s="108" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q29" s="109" t="n">
+        <v>6</v>
+      </c>
+      <c r="R29" s="108" t="s">
+        <v>110</v>
+      </c>
+      <c r="S29" s="109" t="n">
+        <v>6</v>
+      </c>
+      <c r="T29" s="108" t="s">
+        <v>111</v>
+      </c>
+      <c r="U29" s="109" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" s="108" t="s">
+        <v>111</v>
+      </c>
+      <c r="W29" s="109" t="n">
+        <v>5</v>
+      </c>
+      <c r="X29" s="108" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y29" s="109" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="109" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB29" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="109" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD29" s="108"/>
+      <c r="AE29" s="109"/>
+      <c r="AF29" s="108"/>
+      <c r="AG29" s="109"/>
+      <c r="AH29" s="108"/>
+      <c r="AI29" s="109"/>
+      <c r="AJ29" s="108"/>
+      <c r="AK29" s="109"/>
+      <c r="AL29" s="108"/>
+      <c r="AM29" s="109"/>
+      <c r="AN29" s="108"/>
+      <c r="AO29" s="109"/>
+      <c r="AP29" s="108"/>
+      <c r="AQ29" s="109"/>
+      <c r="AR29" s="108"/>
+      <c r="AS29" s="109"/>
+      <c r="AT29" s="108"/>
+      <c r="AU29" s="109"/>
+      <c r="AV29" s="108"/>
+      <c r="AW29" s="109"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
